--- a/系统/法院系统/报价公式.xlsx
+++ b/系统/法院系统/报价公式.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="460" windowWidth="28800" windowHeight="16200"/>
+    <workbookView xWindow="1020" yWindow="880" windowWidth="27400" windowHeight="15200"/>
   </bookViews>
   <sheets>
     <sheet name="报价函" sheetId="1" r:id="rId1"/>
@@ -1798,7 +1798,7 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -2440,9 +2440,7 @@
       <c r="G17" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="26">
-        <v>760000</v>
-      </c>
+      <c r="H17" s="26"/>
       <c r="L17" s="82" t="s">
         <v>96</v>
       </c>
@@ -2475,14 +2473,14 @@
       <c r="G18" s="16"/>
       <c r="H18" s="27">
         <f>H17+H14+H10+H7+H6</f>
-        <v>5240000</v>
+        <v>4480000</v>
       </c>
       <c r="L18" s="82" t="s">
         <v>97</v>
       </c>
       <c r="M18" s="50">
         <f>M17+H17</f>
-        <v>5236960</v>
+        <v>4476960</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.2">
@@ -2600,14 +2598,14 @@
       <c r="G24" s="86"/>
       <c r="H24" s="28">
         <f>H18+H23</f>
-        <v>5240000</v>
+        <v>4480000</v>
       </c>
       <c r="L24" s="82" t="s">
         <v>97</v>
       </c>
       <c r="M24" s="50">
         <f>M23+M18</f>
-        <v>5236960</v>
+        <v>4476960</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -2841,7 +2839,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2938,9 +2936,7 @@
         <f>SUM(B3:F3)</f>
         <v>448</v>
       </c>
-      <c r="H3" s="68">
-        <v>76</v>
-      </c>
+      <c r="H3" s="68"/>
       <c r="I3" s="65">
         <f>报价函!H16/IF(J1="元",1,10000)</f>
         <v>4480000</v>
@@ -3866,8 +3862,8 @@
   <sheetPr codeName="工作表3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M130"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="F129" sqref="F129"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>

--- a/系统/法院系统/报价公式.xlsx
+++ b/系统/法院系统/报价公式.xlsx
@@ -710,7 +710,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>吉林</t>
+    <t>江苏</t>
   </si>
 </sst>
 </file>
@@ -1390,6 +1390,57 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1422,57 +1473,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1799,7 +1799,7 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1819,17 +1819,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="103" t="str">
+      <c r="A1" s="95" t="str">
         <f>G2&amp;"省司法行政综合管理系统二次开发、实施部署、培训、运维报价确认函（全省"&amp;SUM(G3:G5)&amp;"家）"</f>
-        <v>吉林省司法行政综合管理系统二次开发、实施部署、培训、运维报价确认函（全省93家）</v>
-      </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
+        <v>江苏省司法行政综合管理系统二次开发、实施部署、培训、运维报价确认函（全省121家）</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
     </row>
     <row r="2" spans="1:13" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1873,7 +1873,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="96" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1882,15 +1882,15 @@
       <c r="C3" s="3">
         <v>350000</v>
       </c>
-      <c r="D3" s="106">
+      <c r="D3" s="98">
         <f>880000*0.64</f>
         <v>563200</v>
       </c>
-      <c r="E3" s="106">
+      <c r="E3" s="98">
         <f>60000*0.4</f>
         <v>24000</v>
       </c>
-      <c r="F3" s="95">
+      <c r="F3" s="88">
         <f>36000*0.4</f>
         <v>14400</v>
       </c>
@@ -1924,23 +1924,23 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="105"/>
+      <c r="A4" s="97"/>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
         <v>200000</v>
       </c>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="96"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="89"/>
       <c r="G4" s="47">
         <f>VLOOKUP(G$2,各省单位数!A:D,3,FALSE)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="25">
         <f>E3*G4</f>
-        <v>288000</v>
+        <v>312000</v>
       </c>
       <c r="I4" s="46">
         <f>各模块详细工作量测算!F14*80</f>
@@ -1964,23 +1964,23 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="105"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3">
         <v>300000</v>
       </c>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="96"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="89"/>
       <c r="G5" s="47">
         <f>VLOOKUP(G$2,各省单位数!A:D,4,FALSE)</f>
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="H5" s="25">
         <f>F3*G5</f>
-        <v>1152000</v>
+        <v>1540800</v>
       </c>
       <c r="I5" s="46">
         <f>各模块详细工作量测算!F24*80</f>
@@ -2004,22 +2004,22 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="105"/>
+      <c r="A6" s="97"/>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3">
         <v>200000</v>
       </c>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="107"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="93"/>
       <c r="G6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="25">
         <f>H3+H4+H5</f>
-        <v>2003200</v>
+        <v>2416000</v>
       </c>
       <c r="I6" s="46">
         <f>各模块详细工作量测算!F34*80</f>
@@ -2043,7 +2043,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="92" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -2052,24 +2052,24 @@
       <c r="C7" s="7">
         <v>100000</v>
       </c>
-      <c r="D7" s="95">
+      <c r="D7" s="88">
         <f>880000*0.12</f>
         <v>105600</v>
       </c>
-      <c r="E7" s="95">
+      <c r="E7" s="88">
         <f>60000*0.2</f>
         <v>12000</v>
       </c>
-      <c r="F7" s="95">
+      <c r="F7" s="88">
         <f>36000*0.2</f>
         <v>7200</v>
       </c>
-      <c r="G7" s="97" t="s">
+      <c r="G7" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="99">
+      <c r="H7" s="84">
         <f>D7*G3+E7*G4+F7*G5</f>
-        <v>825600</v>
+        <v>1032000</v>
       </c>
       <c r="I7" s="46">
         <f>各模块详细工作量测算!F44*80</f>
@@ -2093,18 +2093,18 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="110"/>
+      <c r="A8" s="92"/>
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>200000</v>
       </c>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="100"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="85"/>
       <c r="I8" s="46">
         <f>各模块详细工作量测算!F54*80</f>
         <v>16640</v>
@@ -2127,18 +2127,18 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="110"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="7">
         <v>100000</v>
       </c>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="108"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="86"/>
       <c r="I9" s="46">
         <f>各模块详细工作量测算!F64*80</f>
         <v>8320</v>
@@ -2161,7 +2161,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="87" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -2170,24 +2170,24 @@
       <c r="C10" s="9">
         <v>100000</v>
       </c>
-      <c r="D10" s="95">
+      <c r="D10" s="88">
         <f>880000*0.18</f>
         <v>158400</v>
       </c>
-      <c r="E10" s="95">
+      <c r="E10" s="88">
         <f>60000*0.3</f>
         <v>18000</v>
       </c>
-      <c r="F10" s="95">
+      <c r="F10" s="88">
         <f>36000*0.3</f>
         <v>10800</v>
       </c>
-      <c r="G10" s="97" t="s">
+      <c r="G10" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="99">
+      <c r="H10" s="84">
         <f>D10*G3+E10*G4+F10*G5</f>
-        <v>1238400</v>
+        <v>1548000</v>
       </c>
       <c r="I10" s="46">
         <f>各模块详细工作量测算!F74*80</f>
@@ -2211,18 +2211,18 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="109"/>
+      <c r="A11" s="87"/>
       <c r="B11" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="9">
         <v>100000</v>
       </c>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="100"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="85"/>
       <c r="I11" s="46">
         <f>各模块详细工作量测算!F84*80</f>
         <v>8320</v>
@@ -2245,18 +2245,18 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="109"/>
+      <c r="A12" s="87"/>
       <c r="B12" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="9">
         <v>200000</v>
       </c>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="100"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="85"/>
       <c r="I12" s="46">
         <f>各模块详细工作量测算!F94*80</f>
         <v>16640</v>
@@ -2279,18 +2279,18 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="109"/>
+      <c r="A13" s="87"/>
       <c r="B13" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="9">
         <v>200000</v>
       </c>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="100"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="85"/>
       <c r="I13" s="46">
         <f>各模块详细工作量测算!F104*80</f>
         <v>16640</v>
@@ -2313,7 +2313,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="101" t="s">
+      <c r="A14" s="99" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -2322,24 +2322,24 @@
       <c r="C14" s="11">
         <v>100000</v>
       </c>
-      <c r="D14" s="95">
+      <c r="D14" s="88">
         <f>880000*0.06</f>
         <v>52800</v>
       </c>
-      <c r="E14" s="95">
+      <c r="E14" s="88">
         <f>60000*0.1</f>
         <v>6000</v>
       </c>
-      <c r="F14" s="95">
+      <c r="F14" s="88">
         <f>36000*0.1</f>
         <v>3600</v>
       </c>
-      <c r="G14" s="97" t="s">
+      <c r="G14" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="99">
+      <c r="H14" s="84">
         <f>D14*G3+E14*G4+F14*G5</f>
-        <v>412800</v>
+        <v>516000</v>
       </c>
       <c r="I14" s="46">
         <f>各模块详细工作量测算!F114*80</f>
@@ -2363,18 +2363,18 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="102"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="53" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="54">
         <v>100000</v>
       </c>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="100"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="85"/>
       <c r="I15" s="46">
         <f>各模块详细工作量测算!F124*80</f>
         <v>8320</v>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="H16" s="60">
         <f>H6+H7+H10+H14</f>
-        <v>4480000</v>
+        <v>5512000</v>
       </c>
       <c r="I16" s="55"/>
       <c r="J16" s="55"/>
@@ -2473,7 +2473,7 @@
       <c r="G18" s="16"/>
       <c r="H18" s="27">
         <f>H17+H14+H10+H7+H6</f>
-        <v>4480000</v>
+        <v>5512000</v>
       </c>
       <c r="L18" s="82" t="s">
         <v>97</v>
@@ -2484,20 +2484,20 @@
       </c>
     </row>
     <row r="19" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="89"/>
+      <c r="C19" s="106"/>
       <c r="D19" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="90" t="s">
+      <c r="E19" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="90"/>
+      <c r="F19" s="107"/>
       <c r="G19" s="18" t="s">
         <v>29</v>
       </c>
@@ -2505,16 +2505,16 @@
       <c r="L19" s="83"/>
     </row>
     <row r="20" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="88"/>
-      <c r="B20" s="89" t="s">
+      <c r="A20" s="105"/>
+      <c r="B20" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="89"/>
+      <c r="C20" s="106"/>
       <c r="D20" s="20">
         <v>50000</v>
       </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
       <c r="G20" s="20"/>
       <c r="H20" s="18">
         <f>D20*G20</f>
@@ -2528,16 +2528,16 @@
       <c r="O20" s="29"/>
     </row>
     <row r="21" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="88"/>
-      <c r="B21" s="91" t="s">
+      <c r="A21" s="105"/>
+      <c r="B21" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="91"/>
+      <c r="C21" s="108"/>
       <c r="D21" s="20">
         <v>100000</v>
       </c>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
       <c r="G21" s="20"/>
       <c r="H21" s="18">
         <f>D21*G21</f>
@@ -2550,30 +2550,30 @@
       </c>
     </row>
     <row r="22" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="88"/>
-      <c r="B22" s="91" t="s">
+      <c r="A22" s="105"/>
+      <c r="B22" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="91"/>
-      <c r="D22" s="90" t="s">
+      <c r="C22" s="108"/>
+      <c r="D22" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
       <c r="H22" s="18"/>
       <c r="L22" s="83"/>
     </row>
     <row r="23" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="88"/>
-      <c r="B23" s="92" t="s">
+      <c r="A23" s="105"/>
+      <c r="B23" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="93"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="94"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="111"/>
       <c r="H23" s="18">
         <f>H20+H21+H22</f>
         <v>0</v>
@@ -2587,18 +2587,18 @@
       </c>
     </row>
     <row r="24" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="86"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="103"/>
       <c r="H24" s="28">
         <f>H18+H23</f>
-        <v>4480000</v>
+        <v>5512000</v>
       </c>
       <c r="L24" s="82" t="s">
         <v>97</v>
@@ -2609,14 +2609,14 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="87"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
+      <c r="A25" s="104"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
@@ -2624,14 +2624,14 @@
       <c r="M25" s="17"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="87"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
+      <c r="A26" s="104"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
@@ -2639,14 +2639,14 @@
       <c r="M26" s="17"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="87"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
+      <c r="A27" s="104"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="104"/>
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
@@ -2654,14 +2654,14 @@
       <c r="M27" s="17"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="87"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
+      <c r="A28" s="104"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="104"/>
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
@@ -2669,14 +2669,14 @@
       <c r="M28" s="17"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="87"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
+      <c r="A29" s="104"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="104"/>
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
@@ -2684,14 +2684,14 @@
       <c r="M29" s="17"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="87"/>
-      <c r="B30" s="87"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
+      <c r="A30" s="104"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
@@ -2699,14 +2699,14 @@
       <c r="M30" s="17"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="87"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
+      <c r="A31" s="104"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>
@@ -2714,14 +2714,14 @@
       <c r="M31" s="17"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="87"/>
-      <c r="B32" s="87"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
+      <c r="A32" s="104"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
       <c r="I32" s="17"/>
       <c r="J32" s="17"/>
       <c r="K32" s="17"/>
@@ -2729,14 +2729,14 @@
       <c r="M32" s="17"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="87"/>
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="87"/>
+      <c r="A33" s="104"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="104"/>
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
       <c r="K33" s="17"/>
@@ -2744,14 +2744,14 @@
       <c r="M33" s="17"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="87"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
+      <c r="A34" s="104"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="104"/>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
@@ -2759,27 +2759,50 @@
       <c r="M34" s="17"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="87"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
+      <c r="A35" s="104"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="104"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="87"/>
-      <c r="B36" s="87"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
+      <c r="A36" s="104"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A25:H36"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
     <mergeCell ref="H7:H9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="D10:D13"/>
@@ -2792,29 +2815,6 @@
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="G7:G9"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A25:H36"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="B23:G23"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2939,7 +2939,7 @@
       <c r="H3" s="68"/>
       <c r="I3" s="65">
         <f>报价函!H16/IF(J1="元",1,10000)</f>
-        <v>4480000</v>
+        <v>5512000</v>
       </c>
       <c r="J3" s="65">
         <v>448</v>
@@ -2975,27 +2975,27 @@
       </c>
       <c r="B5" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!B$4/SUM(报价函!$C$3:$C$6)*报价函!$C3,2)</f>
-        <v>2.68</v>
+        <v>2.63</v>
       </c>
       <c r="C5" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!C$4/SUM(报价函!$C$3:$C$6)*报价函!$C3,2)</f>
-        <v>6.71</v>
+        <v>6.57</v>
       </c>
       <c r="D5" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!D$4/SUM(报价函!$C$3:$C$6)*报价函!$C3,2)</f>
-        <v>16.399999999999999</v>
+        <v>16.07</v>
       </c>
       <c r="E5" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!E$4/SUM(报价函!$C$3:$C$6)*报价函!$C3,2)</f>
-        <v>7.45</v>
+        <v>7.31</v>
       </c>
       <c r="F5" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!F$4/SUM(报价函!$C$3:$C$6)*报价函!$C3,2)</f>
-        <v>33.54</v>
+        <v>32.869999999999997</v>
       </c>
       <c r="G5" s="24">
         <f t="shared" ref="G5:G17" si="1">SUM(B5:F5)</f>
-        <v>66.78</v>
+        <v>65.449999999999989</v>
       </c>
       <c r="H5" s="66"/>
       <c r="I5" s="66"/>
@@ -3007,27 +3007,27 @@
       </c>
       <c r="B6" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!B$4/SUM(报价函!$C$3:$C$6)*报价函!$C4,2)</f>
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="C6" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!C$4/SUM(报价函!$C$3:$C$6)*报价函!$C4,2)</f>
-        <v>3.83</v>
+        <v>3.76</v>
       </c>
       <c r="D6" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!D$4/SUM(报价函!$C$3:$C$6)*报价函!$C4,2)</f>
-        <v>9.3699999999999992</v>
+        <v>9.18</v>
       </c>
       <c r="E6" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!E$4/SUM(报价函!$C$3:$C$6)*报价函!$C4,2)</f>
-        <v>4.26</v>
+        <v>4.17</v>
       </c>
       <c r="F6" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!F$4/SUM(报价函!$C$3:$C$6)*报价函!$C4,2)</f>
-        <v>19.16</v>
+        <v>18.78</v>
       </c>
       <c r="G6" s="24">
         <f t="shared" si="1"/>
-        <v>38.150000000000006</v>
+        <v>37.39</v>
       </c>
       <c r="H6" s="66"/>
       <c r="I6" s="66"/>
@@ -3039,27 +3039,27 @@
       </c>
       <c r="B7" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!B$4/SUM(报价函!$C$3:$C$6)*报价函!$C5,2)</f>
-        <v>2.2999999999999998</v>
+        <v>2.25</v>
       </c>
       <c r="C7" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!C$4/SUM(报价函!$C$3:$C$6)*报价函!$C5,2)</f>
-        <v>5.75</v>
+        <v>5.64</v>
       </c>
       <c r="D7" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!D$4/SUM(报价函!$C$3:$C$6)*报价函!$C5,2)</f>
-        <v>14.05</v>
+        <v>13.78</v>
       </c>
       <c r="E7" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!E$4/SUM(报价函!$C$3:$C$6)*报价函!$C5,2)</f>
-        <v>6.39</v>
+        <v>6.26</v>
       </c>
       <c r="F7" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!F$4/SUM(报价函!$C$3:$C$6)*报价函!$C5,2)</f>
-        <v>28.74</v>
+        <v>28.18</v>
       </c>
       <c r="G7" s="24">
         <f t="shared" si="1"/>
-        <v>57.230000000000004</v>
+        <v>56.11</v>
       </c>
       <c r="H7" s="66"/>
       <c r="I7" s="66"/>
@@ -3071,27 +3071,27 @@
       </c>
       <c r="B8" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!B$4/SUM(报价函!$C$3:$C$6)*报价函!$C6,2)</f>
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="C8" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!C$4/SUM(报价函!$C$3:$C$6)*报价函!$C6,2)</f>
-        <v>3.83</v>
+        <v>3.76</v>
       </c>
       <c r="D8" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!D$4/SUM(报价函!$C$3:$C$6)*报价函!$C6,2)</f>
-        <v>9.3699999999999992</v>
+        <v>9.18</v>
       </c>
       <c r="E8" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!E$4/SUM(报价函!$C$3:$C$6)*报价函!$C6,2)</f>
-        <v>4.26</v>
+        <v>4.17</v>
       </c>
       <c r="F8" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!F$4/SUM(报价函!$C$3:$C$6)*报价函!$C6,2)</f>
-        <v>19.16</v>
+        <v>18.78</v>
       </c>
       <c r="G8" s="24">
         <f t="shared" si="1"/>
-        <v>38.150000000000006</v>
+        <v>37.39</v>
       </c>
       <c r="H8" s="66"/>
       <c r="I8" s="66"/>
@@ -3103,27 +3103,27 @@
       </c>
       <c r="B9" s="24">
         <f>ROUND(报价函!$H$7/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!B$4/SUM(报价函!$C$7:$C$9)*报价函!$C7,2)</f>
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="C9" s="24">
         <f>ROUND(报价函!$H$7/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!C$4/SUM(报价函!$C$7:$C$9)*报价函!$C7,2)</f>
-        <v>2.0699999999999998</v>
+        <v>2.11</v>
       </c>
       <c r="D9" s="24">
         <f>ROUND(报价函!$H$7/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!D$4/SUM(报价函!$C$7:$C$9)*报价函!$C7,2)</f>
-        <v>5.07</v>
+        <v>5.15</v>
       </c>
       <c r="E9" s="24">
         <f>ROUND(报价函!$H$7/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!E$4/SUM(报价函!$C$7:$C$9)*报价函!$C7,2)</f>
-        <v>2.2999999999999998</v>
+        <v>2.34</v>
       </c>
       <c r="F9" s="24">
         <f>ROUND(报价函!$H$7/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!F$4/SUM(报价函!$C$7:$C$9)*报价函!$C7,2)</f>
-        <v>10.37</v>
+        <v>10.53</v>
       </c>
       <c r="G9" s="24">
         <f t="shared" si="1"/>
-        <v>20.64</v>
+        <v>20.97</v>
       </c>
       <c r="H9" s="66"/>
       <c r="I9" s="66"/>
@@ -3135,27 +3135,27 @@
       </c>
       <c r="B10" s="24">
         <f>ROUND(报价函!$H$7/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!B$4/SUM(报价函!$C$7:$C$9)*报价函!$C8,2)</f>
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="C10" s="24">
         <f>ROUND(报价函!$H$7/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!C$4/SUM(报价函!$C$7:$C$9)*报价函!$C8,2)</f>
-        <v>4.1500000000000004</v>
+        <v>4.21</v>
       </c>
       <c r="D10" s="24">
         <f>ROUND(报价函!$H$7/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!D$4/SUM(报价函!$C$7:$C$9)*报价函!$C8,2)</f>
-        <v>10.14</v>
+        <v>10.3</v>
       </c>
       <c r="E10" s="24">
         <f>ROUND(报价函!$H$7/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!E$4/SUM(报价函!$C$7:$C$9)*报价函!$C8,2)</f>
-        <v>4.6100000000000003</v>
+        <v>4.68</v>
       </c>
       <c r="F10" s="24">
         <f>ROUND(报价函!$H$7/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!F$4/SUM(报价函!$C$7:$C$9)*报价函!$C8,2)</f>
-        <v>20.73</v>
+        <v>21.06</v>
       </c>
       <c r="G10" s="24">
         <f t="shared" si="1"/>
-        <v>41.290000000000006</v>
+        <v>41.94</v>
       </c>
       <c r="H10" s="66"/>
       <c r="I10" s="66"/>
@@ -3167,27 +3167,27 @@
       </c>
       <c r="B11" s="24">
         <f>ROUND(报价函!$H$7/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!B$4/SUM(报价函!$C$7:$C$9)*报价函!$C9,2)</f>
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="C11" s="24">
         <f>ROUND(报价函!$H$7/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!C$4/SUM(报价函!$C$7:$C$9)*报价函!$C9,2)</f>
-        <v>2.0699999999999998</v>
+        <v>2.11</v>
       </c>
       <c r="D11" s="24">
         <f>ROUND(报价函!$H$7/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!D$4/SUM(报价函!$C$7:$C$9)*报价函!$C9,2)</f>
-        <v>5.07</v>
+        <v>5.15</v>
       </c>
       <c r="E11" s="24">
         <f>ROUND(报价函!$H$7/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!E$4/SUM(报价函!$C$7:$C$9)*报价函!$C9,2)</f>
-        <v>2.2999999999999998</v>
+        <v>2.34</v>
       </c>
       <c r="F11" s="24">
         <f>ROUND(报价函!$H$7/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!F$4/SUM(报价函!$C$7:$C$9)*报价函!$C9,2)</f>
-        <v>10.37</v>
+        <v>10.53</v>
       </c>
       <c r="G11" s="24">
         <f t="shared" si="1"/>
-        <v>20.64</v>
+        <v>20.97</v>
       </c>
       <c r="H11" s="66"/>
       <c r="I11" s="66"/>
@@ -3199,27 +3199,27 @@
       </c>
       <c r="B12" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!B$4/SUM(报价函!$C$10:$C$13)*报价函!$C10,2)</f>
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="C12" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!C$4/SUM(报价函!$C$10:$C$13)*报价函!$C10,2)</f>
-        <v>2.0699999999999998</v>
+        <v>2.11</v>
       </c>
       <c r="D12" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!D$4/SUM(报价函!$C$10:$C$13)*报价函!$C10,2)</f>
-        <v>5.07</v>
+        <v>5.15</v>
       </c>
       <c r="E12" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!E$4/SUM(报价函!$C$10:$C$13)*报价函!$C10,2)</f>
-        <v>2.2999999999999998</v>
+        <v>2.34</v>
       </c>
       <c r="F12" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!F$4/SUM(报价函!$C$10:$C$13)*报价函!$C10,2)</f>
-        <v>10.37</v>
+        <v>10.53</v>
       </c>
       <c r="G12" s="24">
         <f t="shared" si="1"/>
-        <v>20.64</v>
+        <v>20.97</v>
       </c>
       <c r="H12" s="66"/>
       <c r="I12" s="66"/>
@@ -3231,27 +3231,27 @@
       </c>
       <c r="B13" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!B$4/SUM(报价函!$C$10:$C$13)*报价函!$C11,2)</f>
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="C13" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!C$4/SUM(报价函!$C$10:$C$13)*报价函!$C11,2)</f>
-        <v>2.0699999999999998</v>
+        <v>2.11</v>
       </c>
       <c r="D13" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!D$4/SUM(报价函!$C$10:$C$13)*报价函!$C11,2)</f>
-        <v>5.07</v>
+        <v>5.15</v>
       </c>
       <c r="E13" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!E$4/SUM(报价函!$C$10:$C$13)*报价函!$C11,2)</f>
-        <v>2.2999999999999998</v>
+        <v>2.34</v>
       </c>
       <c r="F13" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!F$4/SUM(报价函!$C$10:$C$13)*报价函!$C11,2)</f>
-        <v>10.37</v>
+        <v>10.53</v>
       </c>
       <c r="G13" s="24">
         <f t="shared" si="1"/>
-        <v>20.64</v>
+        <v>20.97</v>
       </c>
       <c r="H13" s="66"/>
       <c r="I13" s="66"/>
@@ -3263,27 +3263,27 @@
       </c>
       <c r="B14" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!B$4/SUM(报价函!$C$10:$C$13)*报价函!$C12,2)</f>
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="C14" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!C$4/SUM(报价函!$C$10:$C$13)*报价函!$C12,2)</f>
-        <v>4.1500000000000004</v>
+        <v>4.21</v>
       </c>
       <c r="D14" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!D$4/SUM(报价函!$C$10:$C$13)*报价函!$C12,2)</f>
-        <v>10.14</v>
+        <v>10.3</v>
       </c>
       <c r="E14" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!E$4/SUM(报价函!$C$10:$C$13)*报价函!$C12,2)</f>
-        <v>4.6100000000000003</v>
+        <v>4.68</v>
       </c>
       <c r="F14" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!F$4/SUM(报价函!$C$10:$C$13)*报价函!$C12,2)</f>
-        <v>20.73</v>
+        <v>21.06</v>
       </c>
       <c r="G14" s="24">
         <f t="shared" si="1"/>
-        <v>41.290000000000006</v>
+        <v>41.94</v>
       </c>
       <c r="H14" s="66"/>
       <c r="I14" s="66"/>
@@ -3295,27 +3295,27 @@
       </c>
       <c r="B15" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!B$4/SUM(报价函!$C$10:$C$13)*报价函!$C13,2)</f>
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="C15" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!C$4/SUM(报价函!$C$10:$C$13)*报价函!$C13,2)</f>
-        <v>4.1500000000000004</v>
+        <v>4.21</v>
       </c>
       <c r="D15" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!D$4/SUM(报价函!$C$10:$C$13)*报价函!$C13,2)</f>
-        <v>10.14</v>
+        <v>10.3</v>
       </c>
       <c r="E15" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!E$4/SUM(报价函!$C$10:$C$13)*报价函!$C13,2)</f>
-        <v>4.6100000000000003</v>
+        <v>4.68</v>
       </c>
       <c r="F15" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!F$4/SUM(报价函!$C$10:$C$13)*报价函!$C13,2)</f>
-        <v>20.73</v>
+        <v>21.06</v>
       </c>
       <c r="G15" s="24">
         <f t="shared" si="1"/>
-        <v>41.290000000000006</v>
+        <v>41.94</v>
       </c>
       <c r="H15" s="66"/>
       <c r="I15" s="66"/>
@@ -3327,27 +3327,27 @@
       </c>
       <c r="B16" s="24">
         <f>ROUND(报价函!$H$14/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!B$4/SUM(报价函!$C$14:$C$15)*报价函!$C14,2)</f>
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="C16" s="24">
         <f>ROUND(报价函!$H$14/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!C$4/SUM(报价函!$C$14:$C$15)*报价函!$C14,2)</f>
-        <v>2.0699999999999998</v>
+        <v>2.11</v>
       </c>
       <c r="D16" s="24">
         <f>ROUND(报价函!$H$14/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!D$4/SUM(报价函!$C$14:$C$15)*报价函!$C14,2)</f>
-        <v>5.07</v>
+        <v>5.15</v>
       </c>
       <c r="E16" s="24">
         <f>ROUND(报价函!$H$14/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!E$4/SUM(报价函!$C$14:$C$15)*报价函!$C14,2)</f>
-        <v>2.2999999999999998</v>
+        <v>2.34</v>
       </c>
       <c r="F16" s="24">
         <f>ROUND(报价函!$H$14/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!F$4/SUM(报价函!$C$14:$C$15)*报价函!$C14,2)</f>
-        <v>10.37</v>
+        <v>10.53</v>
       </c>
       <c r="G16" s="24">
         <f t="shared" si="1"/>
-        <v>20.64</v>
+        <v>20.97</v>
       </c>
       <c r="H16" s="66"/>
       <c r="I16" s="66"/>
@@ -3359,27 +3359,27 @@
       </c>
       <c r="B17" s="24">
         <f>ROUND(报价函!$H$14/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!B$4/SUM(报价函!$C$14:$C$15)*报价函!$C15,2)</f>
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="C17" s="24">
         <f>ROUND(报价函!$H$14/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!C$4/SUM(报价函!$C$14:$C$15)*报价函!$C15,2)</f>
-        <v>2.0699999999999998</v>
+        <v>2.11</v>
       </c>
       <c r="D17" s="24">
         <f>ROUND(报价函!$H$14/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!D$4/SUM(报价函!$C$14:$C$15)*报价函!$C15,2)</f>
-        <v>5.07</v>
+        <v>5.15</v>
       </c>
       <c r="E17" s="24">
         <f>ROUND(报价函!$H$14/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!E$4/SUM(报价函!$C$14:$C$15)*报价函!$C15,2)</f>
-        <v>2.2999999999999998</v>
+        <v>2.34</v>
       </c>
       <c r="F17" s="24">
         <f>ROUND(报价函!$H$14/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!F$4/SUM(报价函!$C$14:$C$15)*报价函!$C15,2)</f>
-        <v>10.37</v>
+        <v>10.53</v>
       </c>
       <c r="G17" s="24">
         <f t="shared" si="1"/>
-        <v>20.64</v>
+        <v>20.97</v>
       </c>
       <c r="H17" s="66"/>
       <c r="I17" s="66"/>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="G18" s="67">
         <f>SUM(G5:G17)</f>
-        <v>448.02000000000004</v>
+        <v>447.98000000000013</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -3935,7 +3935,7 @@
       </c>
       <c r="B4" s="30">
         <f>VLOOKUP($B1,计算用!A:G,2,FALSE)</f>
-        <v>2.68</v>
+        <v>2.63</v>
       </c>
       <c r="C4" s="35">
         <v>1</v>
@@ -3951,11 +3951,11 @@
       </c>
       <c r="G4" s="71">
         <f>B4/$E$1*10000</f>
-        <v>335</v>
+        <v>328.75</v>
       </c>
       <c r="H4" s="71">
         <f>B4/$E$1*10000/8</f>
-        <v>41.875</v>
+        <v>41.09375</v>
       </c>
       <c r="I4" s="37">
         <f>F4/8</f>
@@ -3963,7 +3963,7 @@
       </c>
       <c r="J4" s="71">
         <f>H4/E4</f>
-        <v>4.1875</v>
+        <v>4.109375</v>
       </c>
       <c r="K4" s="37">
         <f>I4/E4</f>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B5" s="30">
         <f>VLOOKUP($B1,计算用!A:G,3,FALSE)</f>
-        <v>6.71</v>
+        <v>6.57</v>
       </c>
       <c r="C5" s="35">
         <v>2</v>
@@ -3992,11 +3992,11 @@
       </c>
       <c r="G5" s="71">
         <f t="shared" ref="G5:G8" si="0">B5/$E$1*10000</f>
-        <v>838.75</v>
+        <v>821.25</v>
       </c>
       <c r="H5" s="71">
         <f t="shared" ref="H5:H8" si="1">B5/$E$1*10000/8</f>
-        <v>104.84375</v>
+        <v>102.65625</v>
       </c>
       <c r="I5" s="37">
         <f>F5/8</f>
@@ -4004,7 +4004,7 @@
       </c>
       <c r="J5" s="71">
         <f>H5/E5</f>
-        <v>20.96875</v>
+        <v>20.53125</v>
       </c>
       <c r="K5" s="37">
         <f>I5/E5</f>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="B6" s="30">
         <f>VLOOKUP($B1,计算用!A:G,4,FALSE)</f>
-        <v>16.399999999999999</v>
+        <v>16.07</v>
       </c>
       <c r="C6" s="35">
         <v>3</v>
@@ -4033,11 +4033,11 @@
       </c>
       <c r="G6" s="71">
         <f t="shared" si="0"/>
-        <v>2050</v>
+        <v>2008.75</v>
       </c>
       <c r="H6" s="71">
         <f t="shared" si="1"/>
-        <v>256.25</v>
+        <v>251.09375</v>
       </c>
       <c r="I6" s="37">
         <f>F6/8</f>
@@ -4045,7 +4045,7 @@
       </c>
       <c r="J6" s="71">
         <f>H6/E6</f>
-        <v>128.125</v>
+        <v>125.546875</v>
       </c>
       <c r="K6" s="37">
         <f>I6/E6</f>
@@ -4058,7 +4058,7 @@
       </c>
       <c r="B7" s="30">
         <f>VLOOKUP($B1,计算用!A:G,5,FALSE)</f>
-        <v>7.45</v>
+        <v>7.31</v>
       </c>
       <c r="C7" s="35">
         <v>4</v>
@@ -4074,11 +4074,11 @@
       </c>
       <c r="G7" s="71">
         <f t="shared" si="0"/>
-        <v>931.25</v>
+        <v>913.75</v>
       </c>
       <c r="H7" s="71">
         <f t="shared" si="1"/>
-        <v>116.40625</v>
+        <v>114.21875</v>
       </c>
       <c r="I7" s="37">
         <f>F7/8</f>
@@ -4086,7 +4086,7 @@
       </c>
       <c r="J7" s="71">
         <f>H7/E7</f>
-        <v>29.1015625</v>
+        <v>28.5546875</v>
       </c>
       <c r="K7" s="37">
         <f>I7/E7</f>
@@ -4099,7 +4099,7 @@
       </c>
       <c r="B8" s="30">
         <f>VLOOKUP($B1,计算用!A:G,6,FALSE)</f>
-        <v>33.54</v>
+        <v>32.869999999999997</v>
       </c>
       <c r="C8" s="35">
         <v>5</v>
@@ -4115,11 +4115,11 @@
       </c>
       <c r="G8" s="71">
         <f t="shared" si="0"/>
-        <v>4192.5</v>
+        <v>4108.75</v>
       </c>
       <c r="H8" s="71">
         <f t="shared" si="1"/>
-        <v>524.0625</v>
+        <v>513.59375</v>
       </c>
       <c r="I8" s="37">
         <f>F8/8</f>
@@ -4127,7 +4127,7 @@
       </c>
       <c r="J8" s="71">
         <f>H8/E8</f>
-        <v>104.8125</v>
+        <v>102.71875</v>
       </c>
       <c r="K8" s="37">
         <f>I8/E8</f>
@@ -4137,7 +4137,7 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="30">
         <f>SUM(B4:B8)*10000</f>
-        <v>667800</v>
+        <v>654499.99999999988</v>
       </c>
       <c r="F9" s="30">
         <f>SUM(F4:F8)*E1</f>
@@ -4145,7 +4145,7 @@
       </c>
       <c r="L9" s="30">
         <f>F9-B9</f>
-        <v>1000</v>
+        <v>14300.000000000116</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="B14" s="30">
         <f>VLOOKUP($B11,计算用!A:G,2,FALSE)</f>
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="C14" s="35">
         <v>1</v>
@@ -4212,11 +4212,11 @@
       </c>
       <c r="G14" s="71">
         <f>B14/$E$1*10000</f>
-        <v>191.25</v>
+        <v>187.5</v>
       </c>
       <c r="H14" s="71">
         <f>B14/$E$1*10000/8</f>
-        <v>23.90625</v>
+        <v>23.4375</v>
       </c>
       <c r="I14" s="37">
         <f>F14/8</f>
@@ -4224,7 +4224,7 @@
       </c>
       <c r="J14" s="71">
         <f>H14/E14</f>
-        <v>5.9765625</v>
+        <v>5.859375</v>
       </c>
       <c r="K14" s="37">
         <f>I14/E14</f>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="B15" s="30">
         <f>VLOOKUP($B11,计算用!A:G,3,FALSE)</f>
-        <v>3.83</v>
+        <v>3.76</v>
       </c>
       <c r="C15" s="35">
         <v>2</v>
@@ -4253,11 +4253,11 @@
       </c>
       <c r="G15" s="71">
         <f t="shared" ref="G15:G18" si="2">B15/$E$1*10000</f>
-        <v>478.75</v>
+        <v>470</v>
       </c>
       <c r="H15" s="71">
         <f t="shared" ref="H15:H18" si="3">B15/$E$1*10000/8</f>
-        <v>59.84375</v>
+        <v>58.75</v>
       </c>
       <c r="I15" s="37">
         <f>F15/8</f>
@@ -4265,7 +4265,7 @@
       </c>
       <c r="J15" s="71">
         <f>H15/E15</f>
-        <v>11.96875</v>
+        <v>11.75</v>
       </c>
       <c r="K15" s="37">
         <f>I15/E15</f>
@@ -4278,7 +4278,7 @@
       </c>
       <c r="B16" s="30">
         <f>VLOOKUP($B11,计算用!A:G,4,FALSE)</f>
-        <v>9.3699999999999992</v>
+        <v>9.18</v>
       </c>
       <c r="C16" s="35">
         <v>3</v>
@@ -4294,11 +4294,11 @@
       </c>
       <c r="G16" s="71">
         <f t="shared" si="2"/>
-        <v>1171.25</v>
+        <v>1147.5</v>
       </c>
       <c r="H16" s="71">
         <f t="shared" si="3"/>
-        <v>146.40625</v>
+        <v>143.4375</v>
       </c>
       <c r="I16" s="37">
         <f>F16/8</f>
@@ -4306,7 +4306,7 @@
       </c>
       <c r="J16" s="71">
         <f>H16/E16</f>
-        <v>73.203125</v>
+        <v>71.71875</v>
       </c>
       <c r="K16" s="37">
         <f>I16/E16</f>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="B17" s="30">
         <f>VLOOKUP($B11,计算用!A:G,5,FALSE)</f>
-        <v>4.26</v>
+        <v>4.17</v>
       </c>
       <c r="C17" s="35">
         <v>4</v>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="G17" s="71">
         <f t="shared" si="2"/>
-        <v>532.5</v>
+        <v>521.25</v>
       </c>
       <c r="H17" s="71">
         <f t="shared" si="3"/>
-        <v>66.5625</v>
+        <v>65.15625</v>
       </c>
       <c r="I17" s="37">
         <f>F17/8</f>
@@ -4347,7 +4347,7 @@
       </c>
       <c r="J17" s="71">
         <f>H17/E17</f>
-        <v>16.640625</v>
+        <v>16.2890625</v>
       </c>
       <c r="K17" s="37">
         <f>I17/E17</f>
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B18" s="30">
         <f>VLOOKUP($B11,计算用!A:G,6,FALSE)</f>
-        <v>19.16</v>
+        <v>18.78</v>
       </c>
       <c r="C18" s="35">
         <v>5</v>
@@ -4376,11 +4376,11 @@
       </c>
       <c r="G18" s="71">
         <f t="shared" si="2"/>
-        <v>2395</v>
+        <v>2347.5</v>
       </c>
       <c r="H18" s="71">
         <f t="shared" si="3"/>
-        <v>299.375</v>
+        <v>293.4375</v>
       </c>
       <c r="I18" s="37">
         <f>F18/8</f>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="J18" s="71">
         <f>H18/E18</f>
-        <v>59.875</v>
+        <v>58.6875</v>
       </c>
       <c r="K18" s="37">
         <f>I18/E18</f>
@@ -4398,7 +4398,7 @@
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B19" s="30">
         <f>SUM(B14:B18)*10000</f>
-        <v>381500.00000000006</v>
+        <v>373900</v>
       </c>
       <c r="F19" s="30">
         <f>SUM(F14:F18)*$E$1</f>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="L19" s="30">
         <f>F19-B19</f>
-        <v>579.99999999994179</v>
+        <v>8180</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -4457,7 +4457,7 @@
       </c>
       <c r="B24" s="30">
         <f>VLOOKUP($B21,计算用!A:G,2,FALSE)</f>
-        <v>2.2999999999999998</v>
+        <v>2.25</v>
       </c>
       <c r="C24" s="35">
         <v>1</v>
@@ -4473,11 +4473,11 @@
       </c>
       <c r="G24" s="71">
         <f>B24/$E$1*10000</f>
-        <v>287.5</v>
+        <v>281.25</v>
       </c>
       <c r="H24" s="71">
         <f>B24/$E$1*10000/8</f>
-        <v>35.9375</v>
+        <v>35.15625</v>
       </c>
       <c r="I24" s="37">
         <f>F24/8</f>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="J24" s="71">
         <f>H24/E24</f>
-        <v>8.984375</v>
+        <v>8.7890625</v>
       </c>
       <c r="K24" s="37">
         <f>I24/E24</f>
@@ -4498,7 +4498,7 @@
       </c>
       <c r="B25" s="30">
         <f>VLOOKUP($B21,计算用!A:G,3,FALSE)</f>
-        <v>5.75</v>
+        <v>5.64</v>
       </c>
       <c r="C25" s="35">
         <v>2</v>
@@ -4514,11 +4514,11 @@
       </c>
       <c r="G25" s="71">
         <f t="shared" ref="G25:G28" si="4">B25/$E$1*10000</f>
-        <v>718.75</v>
+        <v>704.99999999999989</v>
       </c>
       <c r="H25" s="71">
         <f t="shared" ref="H25:H28" si="5">B25/$E$1*10000/8</f>
-        <v>89.84375</v>
+        <v>88.124999999999986</v>
       </c>
       <c r="I25" s="37">
         <f>F25/8</f>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="J25" s="71">
         <f>H25/E25</f>
-        <v>22.4609375</v>
+        <v>22.031249999999996</v>
       </c>
       <c r="K25" s="37">
         <f>I25/E25</f>
@@ -4539,7 +4539,7 @@
       </c>
       <c r="B26" s="30">
         <f>VLOOKUP($B21,计算用!A:G,4,FALSE)</f>
-        <v>14.05</v>
+        <v>13.78</v>
       </c>
       <c r="C26" s="35">
         <v>3</v>
@@ -4555,11 +4555,11 @@
       </c>
       <c r="G26" s="71">
         <f t="shared" si="4"/>
-        <v>1756.25</v>
+        <v>1722.4999999999998</v>
       </c>
       <c r="H26" s="71">
         <f t="shared" si="5"/>
-        <v>219.53125</v>
+        <v>215.31249999999997</v>
       </c>
       <c r="I26" s="37">
         <f>F26/8</f>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="J26" s="71">
         <f>H26/E26</f>
-        <v>36.588541666666664</v>
+        <v>35.885416666666664</v>
       </c>
       <c r="K26" s="37">
         <f>I26/E26</f>
@@ -4580,7 +4580,7 @@
       </c>
       <c r="B27" s="30">
         <f>VLOOKUP($B21,计算用!A:G,5,FALSE)</f>
-        <v>6.39</v>
+        <v>6.26</v>
       </c>
       <c r="C27" s="35">
         <v>4</v>
@@ -4596,11 +4596,11 @@
       </c>
       <c r="G27" s="71">
         <f t="shared" si="4"/>
-        <v>798.75</v>
+        <v>782.5</v>
       </c>
       <c r="H27" s="71">
         <f t="shared" si="5"/>
-        <v>99.84375</v>
+        <v>97.8125</v>
       </c>
       <c r="I27" s="37">
         <f>F27/8</f>
@@ -4608,7 +4608,7 @@
       </c>
       <c r="J27" s="71">
         <f>H27/E27</f>
-        <v>16.640625</v>
+        <v>16.302083333333332</v>
       </c>
       <c r="K27" s="37">
         <f>I27/E27</f>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="B28" s="30">
         <f>VLOOKUP($B21,计算用!A:G,6,FALSE)</f>
-        <v>28.74</v>
+        <v>28.18</v>
       </c>
       <c r="C28" s="35">
         <v>5</v>
@@ -4637,11 +4637,11 @@
       </c>
       <c r="G28" s="71">
         <f t="shared" si="4"/>
-        <v>3592.4999999999995</v>
+        <v>3522.5</v>
       </c>
       <c r="H28" s="71">
         <f t="shared" si="5"/>
-        <v>449.06249999999994</v>
+        <v>440.3125</v>
       </c>
       <c r="I28" s="37">
         <f>F28/8</f>
@@ -4649,7 +4649,7 @@
       </c>
       <c r="J28" s="71">
         <f>H28/E28</f>
-        <v>89.812499999999986</v>
+        <v>88.0625</v>
       </c>
       <c r="K28" s="37">
         <f>I28/E28</f>
@@ -4659,7 +4659,7 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B29" s="30">
         <f>SUM(B24:B28)*10000</f>
-        <v>572300</v>
+        <v>561100</v>
       </c>
       <c r="F29" s="30">
         <f>SUM(F24:F28)*$E$1</f>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="L29" s="30">
         <f>F29-B29</f>
-        <v>-140</v>
+        <v>11060</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -4718,7 +4718,7 @@
       </c>
       <c r="B34" s="30">
         <f>VLOOKUP($B31,计算用!A:G,2,FALSE)</f>
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="C34" s="35">
         <v>1</v>
@@ -4734,11 +4734,11 @@
       </c>
       <c r="G34" s="71">
         <f>B34/$E$1*10000</f>
-        <v>191.25</v>
+        <v>187.5</v>
       </c>
       <c r="H34" s="71">
         <f>B34/$E$1*10000/8</f>
-        <v>23.90625</v>
+        <v>23.4375</v>
       </c>
       <c r="I34" s="37">
         <f>F34/8</f>
@@ -4746,7 +4746,7 @@
       </c>
       <c r="J34" s="71">
         <f>H34/E34</f>
-        <v>5.9765625</v>
+        <v>5.859375</v>
       </c>
       <c r="K34" s="37">
         <f>I34/E34</f>
@@ -4759,7 +4759,7 @@
       </c>
       <c r="B35" s="30">
         <f>VLOOKUP($B31,计算用!A:G,3,FALSE)</f>
-        <v>3.83</v>
+        <v>3.76</v>
       </c>
       <c r="C35" s="35">
         <v>2</v>
@@ -4775,11 +4775,11 @@
       </c>
       <c r="G35" s="71">
         <f t="shared" ref="G35:G38" si="6">B35/$E$1*10000</f>
-        <v>478.75</v>
+        <v>470</v>
       </c>
       <c r="H35" s="71">
         <f t="shared" ref="H35:H38" si="7">B35/$E$1*10000/8</f>
-        <v>59.84375</v>
+        <v>58.75</v>
       </c>
       <c r="I35" s="37">
         <f>F35/8</f>
@@ -4787,7 +4787,7 @@
       </c>
       <c r="J35" s="71">
         <f>H35/E35</f>
-        <v>14.9609375</v>
+        <v>14.6875</v>
       </c>
       <c r="K35" s="37">
         <f>I35/E35</f>
@@ -4800,7 +4800,7 @@
       </c>
       <c r="B36" s="30">
         <f>VLOOKUP($B31,计算用!A:G,4,FALSE)</f>
-        <v>9.3699999999999992</v>
+        <v>9.18</v>
       </c>
       <c r="C36" s="35">
         <v>3</v>
@@ -4816,11 +4816,11 @@
       </c>
       <c r="G36" s="71">
         <f t="shared" si="6"/>
-        <v>1171.25</v>
+        <v>1147.5</v>
       </c>
       <c r="H36" s="71">
         <f t="shared" si="7"/>
-        <v>146.40625</v>
+        <v>143.4375</v>
       </c>
       <c r="I36" s="37">
         <f>F36/8</f>
@@ -4828,7 +4828,7 @@
       </c>
       <c r="J36" s="71">
         <f>H36/E36</f>
-        <v>24.401041666666668</v>
+        <v>23.90625</v>
       </c>
       <c r="K36" s="37">
         <f>I36/E36</f>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="B37" s="30">
         <f>VLOOKUP($B31,计算用!A:G,5,FALSE)</f>
-        <v>4.26</v>
+        <v>4.17</v>
       </c>
       <c r="C37" s="35">
         <v>4</v>
@@ -4857,11 +4857,11 @@
       </c>
       <c r="G37" s="71">
         <f t="shared" si="6"/>
-        <v>532.5</v>
+        <v>521.25</v>
       </c>
       <c r="H37" s="71">
         <f t="shared" si="7"/>
-        <v>66.5625</v>
+        <v>65.15625</v>
       </c>
       <c r="I37" s="37">
         <f>F37/8</f>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="J37" s="71">
         <f>H37/E37</f>
-        <v>11.09375</v>
+        <v>10.859375</v>
       </c>
       <c r="K37" s="37">
         <f>I37/E37</f>
@@ -4882,7 +4882,7 @@
       </c>
       <c r="B38" s="30">
         <f>VLOOKUP($B31,计算用!A:G,6,FALSE)</f>
-        <v>19.16</v>
+        <v>18.78</v>
       </c>
       <c r="C38" s="35">
         <v>5</v>
@@ -4898,11 +4898,11 @@
       </c>
       <c r="G38" s="71">
         <f t="shared" si="6"/>
-        <v>2395</v>
+        <v>2347.5</v>
       </c>
       <c r="H38" s="71">
         <f t="shared" si="7"/>
-        <v>299.375</v>
+        <v>293.4375</v>
       </c>
       <c r="I38" s="37">
         <f>F38/8</f>
@@ -4910,7 +4910,7 @@
       </c>
       <c r="J38" s="71">
         <f>H38/E38</f>
-        <v>59.875</v>
+        <v>58.6875</v>
       </c>
       <c r="K38" s="37">
         <f>I38/E38</f>
@@ -4920,7 +4920,7 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B39" s="30">
         <f>SUM(B34:B38)*10000</f>
-        <v>381500.00000000006</v>
+        <v>373900</v>
       </c>
       <c r="F39" s="30">
         <f>SUM(F34:F38)*$E$1</f>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="L39" s="30">
         <f>F39-B39</f>
-        <v>-2460.0000000000582</v>
+        <v>5140</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -4979,7 +4979,7 @@
       </c>
       <c r="B44" s="30">
         <f>VLOOKUP($B41,计算用!A:G,2,FALSE)</f>
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="C44" s="35">
         <v>1</v>
@@ -4995,11 +4995,11 @@
       </c>
       <c r="G44" s="71">
         <f>B44/$E$1*10000</f>
-        <v>103.74999999999999</v>
+        <v>104.99999999999999</v>
       </c>
       <c r="H44" s="71">
         <f>B44/$E$1*10000/8</f>
-        <v>12.968749999999998</v>
+        <v>13.124999999999998</v>
       </c>
       <c r="I44" s="37">
         <f>F44/8</f>
@@ -5007,7 +5007,7 @@
       </c>
       <c r="J44" s="71">
         <f>H44/E44</f>
-        <v>3.2421874999999996</v>
+        <v>3.2812499999999996</v>
       </c>
       <c r="K44" s="37">
         <f>I44/E44</f>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="B45" s="30">
         <f>VLOOKUP($B41,计算用!A:G,3,FALSE)</f>
-        <v>2.0699999999999998</v>
+        <v>2.11</v>
       </c>
       <c r="C45" s="35">
         <v>2</v>
@@ -5036,11 +5036,11 @@
       </c>
       <c r="G45" s="71">
         <f t="shared" ref="G45:G48" si="8">B45/$E$1*10000</f>
-        <v>258.75</v>
+        <v>263.75</v>
       </c>
       <c r="H45" s="71">
         <f t="shared" ref="H45:H48" si="9">B45/$E$1*10000/8</f>
-        <v>32.34375</v>
+        <v>32.96875</v>
       </c>
       <c r="I45" s="37">
         <f>F45/8</f>
@@ -5048,7 +5048,7 @@
       </c>
       <c r="J45" s="71">
         <f>H45/E45</f>
-        <v>16.171875</v>
+        <v>16.484375</v>
       </c>
       <c r="K45" s="37">
         <f>I45/E45</f>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="B46" s="30">
         <f>VLOOKUP($B41,计算用!A:G,4,FALSE)</f>
-        <v>5.07</v>
+        <v>5.15</v>
       </c>
       <c r="C46" s="35">
         <v>3</v>
@@ -5077,11 +5077,11 @@
       </c>
       <c r="G46" s="71">
         <f t="shared" si="8"/>
-        <v>633.75</v>
+        <v>643.75</v>
       </c>
       <c r="H46" s="71">
         <f t="shared" si="9"/>
-        <v>79.21875</v>
+        <v>80.46875</v>
       </c>
       <c r="I46" s="37">
         <f>F46/8</f>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="J46" s="71">
         <f>H46/E46</f>
-        <v>19.8046875</v>
+        <v>20.1171875</v>
       </c>
       <c r="K46" s="37">
         <f>I46/E46</f>
@@ -5102,7 +5102,7 @@
       </c>
       <c r="B47" s="30">
         <f>VLOOKUP($B41,计算用!A:G,5,FALSE)</f>
-        <v>2.2999999999999998</v>
+        <v>2.34</v>
       </c>
       <c r="C47" s="35">
         <v>4</v>
@@ -5118,11 +5118,11 @@
       </c>
       <c r="G47" s="71">
         <f t="shared" si="8"/>
-        <v>287.5</v>
+        <v>292.5</v>
       </c>
       <c r="H47" s="71">
         <f t="shared" si="9"/>
-        <v>35.9375</v>
+        <v>36.5625</v>
       </c>
       <c r="I47" s="37">
         <f>F47/8</f>
@@ -5130,7 +5130,7 @@
       </c>
       <c r="J47" s="71">
         <f>H47/E47</f>
-        <v>17.96875</v>
+        <v>18.28125</v>
       </c>
       <c r="K47" s="37">
         <f>I47/E47</f>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="B48" s="30">
         <f>VLOOKUP($B41,计算用!A:G,6,FALSE)</f>
-        <v>10.37</v>
+        <v>10.53</v>
       </c>
       <c r="C48" s="35">
         <v>5</v>
@@ -5159,11 +5159,11 @@
       </c>
       <c r="G48" s="71">
         <f t="shared" si="8"/>
-        <v>1296.25</v>
+        <v>1316.25</v>
       </c>
       <c r="H48" s="71">
         <f t="shared" si="9"/>
-        <v>162.03125</v>
+        <v>164.53125</v>
       </c>
       <c r="I48" s="37">
         <f>F48/8</f>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="J48" s="71">
         <f>H48/E48</f>
-        <v>81.015625</v>
+        <v>82.265625</v>
       </c>
       <c r="K48" s="37">
         <f>I48/E48</f>
@@ -5181,7 +5181,7 @@
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B49" s="30">
         <f>SUM(B44:B48)*10000</f>
-        <v>206400</v>
+        <v>209700</v>
       </c>
       <c r="F49" s="30">
         <f>SUM(F44:F48)*$E$1</f>
@@ -5189,7 +5189,7 @@
       </c>
       <c r="L49" s="30">
         <f>F49-B49</f>
-        <v>-320</v>
+        <v>-3620</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -5240,7 +5240,7 @@
       </c>
       <c r="B54" s="30">
         <f>VLOOKUP($B51,计算用!A:G,2,FALSE)</f>
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="C54" s="35">
         <v>1</v>
@@ -5256,11 +5256,11 @@
       </c>
       <c r="G54" s="71">
         <f>B54/$E$1*10000</f>
-        <v>207.49999999999997</v>
+        <v>211.24999999999997</v>
       </c>
       <c r="H54" s="71">
         <f>B54/$E$1*10000/8</f>
-        <v>25.937499999999996</v>
+        <v>26.406249999999996</v>
       </c>
       <c r="I54" s="37">
         <f>F54/8</f>
@@ -5268,7 +5268,7 @@
       </c>
       <c r="J54" s="71">
         <f>H54/E54</f>
-        <v>6.4843749999999991</v>
+        <v>6.6015624999999991</v>
       </c>
       <c r="K54" s="37">
         <f>I54/E54</f>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="B55" s="30">
         <f>VLOOKUP($B51,计算用!A:G,3,FALSE)</f>
-        <v>4.1500000000000004</v>
+        <v>4.21</v>
       </c>
       <c r="C55" s="35">
         <v>2</v>
@@ -5297,11 +5297,11 @@
       </c>
       <c r="G55" s="71">
         <f t="shared" ref="G55:G58" si="10">B55/$E$1*10000</f>
-        <v>518.75</v>
+        <v>526.25</v>
       </c>
       <c r="H55" s="71">
         <f t="shared" ref="H55:H58" si="11">B55/$E$1*10000/8</f>
-        <v>64.84375</v>
+        <v>65.78125</v>
       </c>
       <c r="I55" s="37">
         <f>F55/8</f>
@@ -5309,7 +5309,7 @@
       </c>
       <c r="J55" s="71">
         <f>H55/E55</f>
-        <v>32.421875</v>
+        <v>32.890625</v>
       </c>
       <c r="K55" s="37">
         <f>I55/E55</f>
@@ -5322,7 +5322,7 @@
       </c>
       <c r="B56" s="30">
         <f>VLOOKUP($B51,计算用!A:G,4,FALSE)</f>
-        <v>10.14</v>
+        <v>10.3</v>
       </c>
       <c r="C56" s="35">
         <v>3</v>
@@ -5338,11 +5338,11 @@
       </c>
       <c r="G56" s="71">
         <f t="shared" si="10"/>
-        <v>1267.5</v>
+        <v>1287.5</v>
       </c>
       <c r="H56" s="71">
         <f t="shared" si="11"/>
-        <v>158.4375</v>
+        <v>160.9375</v>
       </c>
       <c r="I56" s="37">
         <f>F56/8</f>
@@ -5350,7 +5350,7 @@
       </c>
       <c r="J56" s="71">
         <f>H56/E56</f>
-        <v>39.609375</v>
+        <v>40.234375</v>
       </c>
       <c r="K56" s="37">
         <f>I56/E56</f>
@@ -5363,7 +5363,7 @@
       </c>
       <c r="B57" s="30">
         <f>VLOOKUP($B51,计算用!A:G,5,FALSE)</f>
-        <v>4.6100000000000003</v>
+        <v>4.68</v>
       </c>
       <c r="C57" s="35">
         <v>4</v>
@@ -5379,11 +5379,11 @@
       </c>
       <c r="G57" s="71">
         <f t="shared" si="10"/>
-        <v>576.25</v>
+        <v>585</v>
       </c>
       <c r="H57" s="71">
         <f t="shared" si="11"/>
-        <v>72.03125</v>
+        <v>73.125</v>
       </c>
       <c r="I57" s="37">
         <f>F57/8</f>
@@ -5391,7 +5391,7 @@
       </c>
       <c r="J57" s="71">
         <f>H57/E57</f>
-        <v>36.015625</v>
+        <v>36.5625</v>
       </c>
       <c r="K57" s="37">
         <f>I57/E57</f>
@@ -5404,7 +5404,7 @@
       </c>
       <c r="B58" s="30">
         <f>VLOOKUP($B51,计算用!A:G,6,FALSE)</f>
-        <v>20.73</v>
+        <v>21.06</v>
       </c>
       <c r="C58" s="35">
         <v>5</v>
@@ -5420,11 +5420,11 @@
       </c>
       <c r="G58" s="71">
         <f t="shared" si="10"/>
-        <v>2591.25</v>
+        <v>2632.5</v>
       </c>
       <c r="H58" s="71">
         <f t="shared" si="11"/>
-        <v>323.90625</v>
+        <v>329.0625</v>
       </c>
       <c r="I58" s="37">
         <f>F58/8</f>
@@ -5432,7 +5432,7 @@
       </c>
       <c r="J58" s="71">
         <f>H58/E58</f>
-        <v>161.953125</v>
+        <v>164.53125</v>
       </c>
       <c r="K58" s="37">
         <f>I58/E58</f>
@@ -5442,7 +5442,7 @@
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B59" s="30">
         <f>SUM(B54:B58)*10000</f>
-        <v>412900.00000000006</v>
+        <v>419400</v>
       </c>
       <c r="F59" s="30">
         <f>SUM(F54:F58)*$E$1</f>
@@ -5450,7 +5450,7 @@
       </c>
       <c r="L59" s="30">
         <f>F59-B59</f>
-        <v>-100.00000000005821</v>
+        <v>-6600</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -5501,7 +5501,7 @@
       </c>
       <c r="B64" s="30">
         <f>VLOOKUP($B61,计算用!A:G,2,FALSE)</f>
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="C64" s="35">
         <v>1</v>
@@ -5517,11 +5517,11 @@
       </c>
       <c r="G64" s="71">
         <f>B64/$E$1*10000</f>
-        <v>103.74999999999999</v>
+        <v>104.99999999999999</v>
       </c>
       <c r="H64" s="71">
         <f>B64/$E$1*10000/8</f>
-        <v>12.968749999999998</v>
+        <v>13.124999999999998</v>
       </c>
       <c r="I64" s="37">
         <f>F64/8</f>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="J64" s="71">
         <f>H64/E64</f>
-        <v>12.968749999999998</v>
+        <v>13.124999999999998</v>
       </c>
       <c r="K64" s="37">
         <f>I64/E64</f>
@@ -5542,7 +5542,7 @@
       </c>
       <c r="B65" s="30">
         <f>VLOOKUP($B61,计算用!A:G,3,FALSE)</f>
-        <v>2.0699999999999998</v>
+        <v>2.11</v>
       </c>
       <c r="C65" s="35">
         <v>2</v>
@@ -5558,11 +5558,11 @@
       </c>
       <c r="G65" s="71">
         <f t="shared" ref="G65:G68" si="12">B65/$E$1*10000</f>
-        <v>258.75</v>
+        <v>263.75</v>
       </c>
       <c r="H65" s="71">
         <f t="shared" ref="H65:H68" si="13">B65/$E$1*10000/8</f>
-        <v>32.34375</v>
+        <v>32.96875</v>
       </c>
       <c r="I65" s="37">
         <f>F65/8</f>
@@ -5570,7 +5570,7 @@
       </c>
       <c r="J65" s="71">
         <f>H65/E65</f>
-        <v>16.171875</v>
+        <v>16.484375</v>
       </c>
       <c r="K65" s="37">
         <f>I65/E65</f>
@@ -5583,7 +5583,7 @@
       </c>
       <c r="B66" s="30">
         <f>VLOOKUP($B61,计算用!A:G,4,FALSE)</f>
-        <v>5.07</v>
+        <v>5.15</v>
       </c>
       <c r="C66" s="35">
         <v>3</v>
@@ -5599,11 +5599,11 @@
       </c>
       <c r="G66" s="71">
         <f t="shared" si="12"/>
-        <v>633.75</v>
+        <v>643.75</v>
       </c>
       <c r="H66" s="71">
         <f t="shared" si="13"/>
-        <v>79.21875</v>
+        <v>80.46875</v>
       </c>
       <c r="I66" s="37">
         <f>F66/8</f>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="J66" s="71">
         <f>H66/E66</f>
-        <v>19.8046875</v>
+        <v>20.1171875</v>
       </c>
       <c r="K66" s="37">
         <f>I66/E66</f>
@@ -5624,7 +5624,7 @@
       </c>
       <c r="B67" s="30">
         <f>VLOOKUP($B61,计算用!A:G,5,FALSE)</f>
-        <v>2.2999999999999998</v>
+        <v>2.34</v>
       </c>
       <c r="C67" s="35">
         <v>4</v>
@@ -5640,11 +5640,11 @@
       </c>
       <c r="G67" s="71">
         <f t="shared" si="12"/>
-        <v>287.5</v>
+        <v>292.5</v>
       </c>
       <c r="H67" s="71">
         <f t="shared" si="13"/>
-        <v>35.9375</v>
+        <v>36.5625</v>
       </c>
       <c r="I67" s="37">
         <f>F67/8</f>
@@ -5652,7 +5652,7 @@
       </c>
       <c r="J67" s="71">
         <f>H67/E67</f>
-        <v>17.96875</v>
+        <v>18.28125</v>
       </c>
       <c r="K67" s="37">
         <f>I67/E67</f>
@@ -5665,7 +5665,7 @@
       </c>
       <c r="B68" s="30">
         <f>VLOOKUP($B61,计算用!A:G,6,FALSE)</f>
-        <v>10.37</v>
+        <v>10.53</v>
       </c>
       <c r="C68" s="35">
         <v>5</v>
@@ -5681,11 +5681,11 @@
       </c>
       <c r="G68" s="71">
         <f t="shared" si="12"/>
-        <v>1296.25</v>
+        <v>1316.25</v>
       </c>
       <c r="H68" s="71">
         <f t="shared" si="13"/>
-        <v>162.03125</v>
+        <v>164.53125</v>
       </c>
       <c r="I68" s="37">
         <f>F68/8</f>
@@ -5693,7 +5693,7 @@
       </c>
       <c r="J68" s="71">
         <f>H68/E68</f>
-        <v>81.015625</v>
+        <v>82.265625</v>
       </c>
       <c r="K68" s="37">
         <f>I68/E68</f>
@@ -5703,7 +5703,7 @@
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B69" s="30">
         <f>SUM(B64:B68)*10000</f>
-        <v>206400</v>
+        <v>209700</v>
       </c>
       <c r="F69" s="30">
         <f>SUM(F64:F68)*$E$1</f>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="L69" s="30">
         <f>F69-B69</f>
-        <v>-320</v>
+        <v>-3620</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -5762,7 +5762,7 @@
       </c>
       <c r="B74" s="30">
         <f>VLOOKUP($B71,计算用!A:G,2,FALSE)</f>
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="C74" s="35">
         <v>1</v>
@@ -5778,11 +5778,11 @@
       </c>
       <c r="G74" s="71">
         <f>B74/$E$1*10000</f>
-        <v>103.74999999999999</v>
+        <v>104.99999999999999</v>
       </c>
       <c r="H74" s="71">
         <f>B74/$E$1*10000/8</f>
-        <v>12.968749999999998</v>
+        <v>13.124999999999998</v>
       </c>
       <c r="I74" s="37">
         <f>F74/8</f>
@@ -5790,7 +5790,7 @@
       </c>
       <c r="J74" s="71">
         <f>H74/E74</f>
-        <v>12.968749999999998</v>
+        <v>13.124999999999998</v>
       </c>
       <c r="K74" s="37">
         <f>I74/E74</f>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="B75" s="30">
         <f>VLOOKUP($B71,计算用!A:G,3,FALSE)</f>
-        <v>2.0699999999999998</v>
+        <v>2.11</v>
       </c>
       <c r="C75" s="35">
         <v>2</v>
@@ -5819,11 +5819,11 @@
       </c>
       <c r="G75" s="71">
         <f t="shared" ref="G75:G78" si="14">B75/$E$1*10000</f>
-        <v>258.75</v>
+        <v>263.75</v>
       </c>
       <c r="H75" s="71">
         <f t="shared" ref="H75:H78" si="15">B75/$E$1*10000/8</f>
-        <v>32.34375</v>
+        <v>32.96875</v>
       </c>
       <c r="I75" s="37">
         <f>F75/8</f>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="J75" s="71">
         <f>H75/E75</f>
-        <v>16.171875</v>
+        <v>16.484375</v>
       </c>
       <c r="K75" s="37">
         <f>I75/E75</f>
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B76" s="30">
         <f>VLOOKUP($B71,计算用!A:G,4,FALSE)</f>
-        <v>5.07</v>
+        <v>5.15</v>
       </c>
       <c r="C76" s="35">
         <v>3</v>
@@ -5860,11 +5860,11 @@
       </c>
       <c r="G76" s="71">
         <f t="shared" si="14"/>
-        <v>633.75</v>
+        <v>643.75</v>
       </c>
       <c r="H76" s="71">
         <f t="shared" si="15"/>
-        <v>79.21875</v>
+        <v>80.46875</v>
       </c>
       <c r="I76" s="37">
         <f>F76/8</f>
@@ -5872,7 +5872,7 @@
       </c>
       <c r="J76" s="71">
         <f>H76/E76</f>
-        <v>19.8046875</v>
+        <v>20.1171875</v>
       </c>
       <c r="K76" s="37">
         <f>I76/E76</f>
@@ -5885,7 +5885,7 @@
       </c>
       <c r="B77" s="30">
         <f>VLOOKUP($B71,计算用!A:G,5,FALSE)</f>
-        <v>2.2999999999999998</v>
+        <v>2.34</v>
       </c>
       <c r="C77" s="35">
         <v>4</v>
@@ -5901,11 +5901,11 @@
       </c>
       <c r="G77" s="71">
         <f t="shared" si="14"/>
-        <v>287.5</v>
+        <v>292.5</v>
       </c>
       <c r="H77" s="71">
         <f t="shared" si="15"/>
-        <v>35.9375</v>
+        <v>36.5625</v>
       </c>
       <c r="I77" s="37">
         <f>F77/8</f>
@@ -5913,7 +5913,7 @@
       </c>
       <c r="J77" s="71">
         <f>H77/E77</f>
-        <v>17.96875</v>
+        <v>18.28125</v>
       </c>
       <c r="K77" s="37">
         <f>I77/E77</f>
@@ -5926,7 +5926,7 @@
       </c>
       <c r="B78" s="30">
         <f>VLOOKUP($B71,计算用!A:G,6,FALSE)</f>
-        <v>10.37</v>
+        <v>10.53</v>
       </c>
       <c r="C78" s="35">
         <v>5</v>
@@ -5942,11 +5942,11 @@
       </c>
       <c r="G78" s="71">
         <f t="shared" si="14"/>
-        <v>1296.25</v>
+        <v>1316.25</v>
       </c>
       <c r="H78" s="71">
         <f t="shared" si="15"/>
-        <v>162.03125</v>
+        <v>164.53125</v>
       </c>
       <c r="I78" s="37">
         <f>F78/8</f>
@@ -5954,7 +5954,7 @@
       </c>
       <c r="J78" s="71">
         <f>H78/E78</f>
-        <v>81.015625</v>
+        <v>82.265625</v>
       </c>
       <c r="K78" s="37">
         <f>I78/E78</f>
@@ -5964,7 +5964,7 @@
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B79" s="30">
         <f>SUM(B74:B78)*10000</f>
-        <v>206400</v>
+        <v>209700</v>
       </c>
       <c r="F79" s="30">
         <f>SUM(F74:F78)*$E$1</f>
@@ -5972,7 +5972,7 @@
       </c>
       <c r="L79" s="30">
         <f>F79-B79</f>
-        <v>-320</v>
+        <v>-3620</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -6023,7 +6023,7 @@
       </c>
       <c r="B84" s="30">
         <f>VLOOKUP($B81,计算用!A:G,2,FALSE)</f>
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="C84" s="35">
         <v>1</v>
@@ -6039,11 +6039,11 @@
       </c>
       <c r="G84" s="71">
         <f>B84/$E$1*10000</f>
-        <v>103.74999999999999</v>
+        <v>104.99999999999999</v>
       </c>
       <c r="H84" s="71">
         <f>B84/$E$1*10000/8</f>
-        <v>12.968749999999998</v>
+        <v>13.124999999999998</v>
       </c>
       <c r="I84" s="37">
         <f>F84/8</f>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="J84" s="71">
         <f>H84/E84</f>
-        <v>12.968749999999998</v>
+        <v>13.124999999999998</v>
       </c>
       <c r="K84" s="37">
         <f>I84/E84</f>
@@ -6064,7 +6064,7 @@
       </c>
       <c r="B85" s="30">
         <f>VLOOKUP($B81,计算用!A:G,3,FALSE)</f>
-        <v>2.0699999999999998</v>
+        <v>2.11</v>
       </c>
       <c r="C85" s="35">
         <v>2</v>
@@ -6080,11 +6080,11 @@
       </c>
       <c r="G85" s="71">
         <f t="shared" ref="G85:G88" si="16">B85/$E$1*10000</f>
-        <v>258.75</v>
+        <v>263.75</v>
       </c>
       <c r="H85" s="71">
         <f t="shared" ref="H85:H88" si="17">B85/$E$1*10000/8</f>
-        <v>32.34375</v>
+        <v>32.96875</v>
       </c>
       <c r="I85" s="37">
         <f>F85/8</f>
@@ -6092,7 +6092,7 @@
       </c>
       <c r="J85" s="71">
         <f>H85/E85</f>
-        <v>32.34375</v>
+        <v>32.96875</v>
       </c>
       <c r="K85" s="37">
         <f>I85/E85</f>
@@ -6105,7 +6105,7 @@
       </c>
       <c r="B86" s="30">
         <f>VLOOKUP($B81,计算用!A:G,4,FALSE)</f>
-        <v>5.07</v>
+        <v>5.15</v>
       </c>
       <c r="C86" s="35">
         <v>3</v>
@@ -6121,11 +6121,11 @@
       </c>
       <c r="G86" s="71">
         <f t="shared" si="16"/>
-        <v>633.75</v>
+        <v>643.75</v>
       </c>
       <c r="H86" s="71">
         <f t="shared" si="17"/>
-        <v>79.21875</v>
+        <v>80.46875</v>
       </c>
       <c r="I86" s="37">
         <f>F86/8</f>
@@ -6133,7 +6133,7 @@
       </c>
       <c r="J86" s="71">
         <f>H86/E86</f>
-        <v>39.609375</v>
+        <v>40.234375</v>
       </c>
       <c r="K86" s="37">
         <f>I86/E86</f>
@@ -6146,7 +6146,7 @@
       </c>
       <c r="B87" s="30">
         <f>VLOOKUP($B81,计算用!A:G,5,FALSE)</f>
-        <v>2.2999999999999998</v>
+        <v>2.34</v>
       </c>
       <c r="C87" s="35">
         <v>4</v>
@@ -6162,11 +6162,11 @@
       </c>
       <c r="G87" s="71">
         <f t="shared" si="16"/>
-        <v>287.5</v>
+        <v>292.5</v>
       </c>
       <c r="H87" s="71">
         <f t="shared" si="17"/>
-        <v>35.9375</v>
+        <v>36.5625</v>
       </c>
       <c r="I87" s="37">
         <f>F87/8</f>
@@ -6174,7 +6174,7 @@
       </c>
       <c r="J87" s="71">
         <f>H87/E87</f>
-        <v>17.96875</v>
+        <v>18.28125</v>
       </c>
       <c r="K87" s="37">
         <f>I87/E87</f>
@@ -6187,7 +6187,7 @@
       </c>
       <c r="B88" s="30">
         <f>VLOOKUP($B81,计算用!A:G,6,FALSE)</f>
-        <v>10.37</v>
+        <v>10.53</v>
       </c>
       <c r="C88" s="35">
         <v>5</v>
@@ -6203,11 +6203,11 @@
       </c>
       <c r="G88" s="71">
         <f t="shared" si="16"/>
-        <v>1296.25</v>
+        <v>1316.25</v>
       </c>
       <c r="H88" s="71">
         <f t="shared" si="17"/>
-        <v>162.03125</v>
+        <v>164.53125</v>
       </c>
       <c r="I88" s="37">
         <f>F88/8</f>
@@ -6215,7 +6215,7 @@
       </c>
       <c r="J88" s="71">
         <f>H88/E88</f>
-        <v>81.015625</v>
+        <v>82.265625</v>
       </c>
       <c r="K88" s="37">
         <f>I88/E88</f>
@@ -6225,7 +6225,7 @@
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B89" s="30">
         <f>SUM(B84:B88)*10000</f>
-        <v>206400</v>
+        <v>209700</v>
       </c>
       <c r="F89" s="30">
         <f>SUM(F84:F88)*$E$1</f>
@@ -6233,7 +6233,7 @@
       </c>
       <c r="L89" s="30">
         <f>F89-B89</f>
-        <v>-320</v>
+        <v>-3620</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -6284,7 +6284,7 @@
       </c>
       <c r="B94" s="30">
         <f>VLOOKUP($B91,计算用!A:G,2,FALSE)</f>
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="C94" s="35">
         <v>1</v>
@@ -6300,11 +6300,11 @@
       </c>
       <c r="G94" s="71">
         <f>B94/$E$1*10000</f>
-        <v>207.49999999999997</v>
+        <v>211.24999999999997</v>
       </c>
       <c r="H94" s="71">
         <f>B94/$E$1*10000/8</f>
-        <v>25.937499999999996</v>
+        <v>26.406249999999996</v>
       </c>
       <c r="I94" s="37">
         <f>F94/8</f>
@@ -6312,7 +6312,7 @@
       </c>
       <c r="J94" s="71">
         <f>H94/E94</f>
-        <v>25.937499999999996</v>
+        <v>26.406249999999996</v>
       </c>
       <c r="K94" s="37">
         <f>I94/E94</f>
@@ -6325,7 +6325,7 @@
       </c>
       <c r="B95" s="30">
         <f>VLOOKUP($B91,计算用!A:G,3,FALSE)</f>
-        <v>4.1500000000000004</v>
+        <v>4.21</v>
       </c>
       <c r="C95" s="35">
         <v>2</v>
@@ -6341,11 +6341,11 @@
       </c>
       <c r="G95" s="71">
         <f t="shared" ref="G95:G98" si="18">B95/$E$1*10000</f>
-        <v>518.75</v>
+        <v>526.25</v>
       </c>
       <c r="H95" s="71">
         <f t="shared" ref="H95:H98" si="19">B95/$E$1*10000/8</f>
-        <v>64.84375</v>
+        <v>65.78125</v>
       </c>
       <c r="I95" s="37">
         <f>F95/8</f>
@@ -6353,7 +6353,7 @@
       </c>
       <c r="J95" s="71">
         <f>H95/E95</f>
-        <v>64.84375</v>
+        <v>65.78125</v>
       </c>
       <c r="K95" s="37">
         <f>I95/E95</f>
@@ -6366,7 +6366,7 @@
       </c>
       <c r="B96" s="30">
         <f>VLOOKUP($B91,计算用!A:G,4,FALSE)</f>
-        <v>10.14</v>
+        <v>10.3</v>
       </c>
       <c r="C96" s="35">
         <v>3</v>
@@ -6382,11 +6382,11 @@
       </c>
       <c r="G96" s="71">
         <f t="shared" si="18"/>
-        <v>1267.5</v>
+        <v>1287.5</v>
       </c>
       <c r="H96" s="71">
         <f t="shared" si="19"/>
-        <v>158.4375</v>
+        <v>160.9375</v>
       </c>
       <c r="I96" s="37">
         <f>F96/8</f>
@@ -6394,7 +6394,7 @@
       </c>
       <c r="J96" s="71">
         <f>H96/E96</f>
-        <v>79.21875</v>
+        <v>80.46875</v>
       </c>
       <c r="K96" s="37">
         <f>I96/E96</f>
@@ -6407,7 +6407,7 @@
       </c>
       <c r="B97" s="30">
         <f>VLOOKUP($B91,计算用!A:G,5,FALSE)</f>
-        <v>4.6100000000000003</v>
+        <v>4.68</v>
       </c>
       <c r="C97" s="35">
         <v>4</v>
@@ -6423,11 +6423,11 @@
       </c>
       <c r="G97" s="71">
         <f t="shared" si="18"/>
-        <v>576.25</v>
+        <v>585</v>
       </c>
       <c r="H97" s="71">
         <f t="shared" si="19"/>
-        <v>72.03125</v>
+        <v>73.125</v>
       </c>
       <c r="I97" s="37">
         <f>F97/8</f>
@@ -6435,7 +6435,7 @@
       </c>
       <c r="J97" s="71">
         <f>H97/E97</f>
-        <v>36.015625</v>
+        <v>36.5625</v>
       </c>
       <c r="K97" s="37">
         <f>I97/E97</f>
@@ -6448,7 +6448,7 @@
       </c>
       <c r="B98" s="30">
         <f>VLOOKUP($B91,计算用!A:G,6,FALSE)</f>
-        <v>20.73</v>
+        <v>21.06</v>
       </c>
       <c r="C98" s="35">
         <v>5</v>
@@ -6464,11 +6464,11 @@
       </c>
       <c r="G98" s="71">
         <f t="shared" si="18"/>
-        <v>2591.25</v>
+        <v>2632.5</v>
       </c>
       <c r="H98" s="71">
         <f t="shared" si="19"/>
-        <v>323.90625</v>
+        <v>329.0625</v>
       </c>
       <c r="I98" s="37">
         <f>F98/8</f>
@@ -6476,7 +6476,7 @@
       </c>
       <c r="J98" s="71">
         <f>H98/E98</f>
-        <v>161.953125</v>
+        <v>164.53125</v>
       </c>
       <c r="K98" s="37">
         <f>I98/E98</f>
@@ -6486,7 +6486,7 @@
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B99" s="30">
         <f>SUM(B94:B98)*10000</f>
-        <v>412900.00000000006</v>
+        <v>419400</v>
       </c>
       <c r="F99" s="30">
         <f>SUM(F94:F98)*$E$1</f>
@@ -6494,7 +6494,7 @@
       </c>
       <c r="L99" s="30">
         <f>F99-B99</f>
-        <v>-100.00000000005821</v>
+        <v>-6600</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="B104" s="30">
         <f>VLOOKUP($B101,计算用!A:G,2,FALSE)</f>
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="C104" s="35">
         <v>1</v>
@@ -6561,11 +6561,11 @@
       </c>
       <c r="G104" s="71">
         <f>B104/$E$1*10000</f>
-        <v>207.49999999999997</v>
+        <v>211.24999999999997</v>
       </c>
       <c r="H104" s="71">
         <f>B104/$E$1*10000/8</f>
-        <v>25.937499999999996</v>
+        <v>26.406249999999996</v>
       </c>
       <c r="I104" s="37">
         <f>F104/8</f>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="J104" s="71">
         <f>H104/E104</f>
-        <v>5.1874999999999991</v>
+        <v>5.2812499999999991</v>
       </c>
       <c r="K104" s="37">
         <f>I104/E104</f>
@@ -6586,7 +6586,7 @@
       </c>
       <c r="B105" s="30">
         <f>VLOOKUP($B101,计算用!A:G,3,FALSE)</f>
-        <v>4.1500000000000004</v>
+        <v>4.21</v>
       </c>
       <c r="C105" s="35">
         <v>2</v>
@@ -6602,11 +6602,11 @@
       </c>
       <c r="G105" s="71">
         <f t="shared" ref="G105:G108" si="20">B105/$E$1*10000</f>
-        <v>518.75</v>
+        <v>526.25</v>
       </c>
       <c r="H105" s="71">
         <f t="shared" ref="H105:H108" si="21">B105/$E$1*10000/8</f>
-        <v>64.84375</v>
+        <v>65.78125</v>
       </c>
       <c r="I105" s="37">
         <f>F105/8</f>
@@ -6614,7 +6614,7 @@
       </c>
       <c r="J105" s="71">
         <f>H105/E105</f>
-        <v>21.614583333333332</v>
+        <v>21.927083333333332</v>
       </c>
       <c r="K105" s="37">
         <f>I105/E105</f>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="B106" s="30">
         <f>VLOOKUP($B101,计算用!A:G,4,FALSE)</f>
-        <v>10.14</v>
+        <v>10.3</v>
       </c>
       <c r="C106" s="35">
         <v>3</v>
@@ -6643,11 +6643,11 @@
       </c>
       <c r="G106" s="71">
         <f t="shared" si="20"/>
-        <v>1267.5</v>
+        <v>1287.5</v>
       </c>
       <c r="H106" s="71">
         <f t="shared" si="21"/>
-        <v>158.4375</v>
+        <v>160.9375</v>
       </c>
       <c r="I106" s="37">
         <f>F106/8</f>
@@ -6655,7 +6655,7 @@
       </c>
       <c r="J106" s="71">
         <f>H106/E106</f>
-        <v>26.40625</v>
+        <v>26.822916666666668</v>
       </c>
       <c r="K106" s="37">
         <f>I106/E106</f>
@@ -6668,7 +6668,7 @@
       </c>
       <c r="B107" s="30">
         <f>VLOOKUP($B101,计算用!A:G,5,FALSE)</f>
-        <v>4.6100000000000003</v>
+        <v>4.68</v>
       </c>
       <c r="C107" s="35">
         <v>4</v>
@@ -6684,11 +6684,11 @@
       </c>
       <c r="G107" s="71">
         <f t="shared" si="20"/>
-        <v>576.25</v>
+        <v>585</v>
       </c>
       <c r="H107" s="71">
         <f t="shared" si="21"/>
-        <v>72.03125</v>
+        <v>73.125</v>
       </c>
       <c r="I107" s="37">
         <f>F107/8</f>
@@ -6696,7 +6696,7 @@
       </c>
       <c r="J107" s="71">
         <f>H107/E107</f>
-        <v>18.0078125</v>
+        <v>18.28125</v>
       </c>
       <c r="K107" s="37">
         <f>I107/E107</f>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="B108" s="30">
         <f>VLOOKUP($B101,计算用!A:G,6,FALSE)</f>
-        <v>20.73</v>
+        <v>21.06</v>
       </c>
       <c r="C108" s="35">
         <v>5</v>
@@ -6725,11 +6725,11 @@
       </c>
       <c r="G108" s="71">
         <f t="shared" si="20"/>
-        <v>2591.25</v>
+        <v>2632.5</v>
       </c>
       <c r="H108" s="71">
         <f t="shared" si="21"/>
-        <v>323.90625</v>
+        <v>329.0625</v>
       </c>
       <c r="I108" s="37">
         <f>F108/8</f>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="J108" s="71">
         <f>H108/E108</f>
-        <v>53.984375</v>
+        <v>54.84375</v>
       </c>
       <c r="K108" s="37">
         <f>I108/E108</f>
@@ -6747,7 +6747,7 @@
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B109" s="30">
         <f>SUM(B104:B108)*10000</f>
-        <v>412900.00000000006</v>
+        <v>419400</v>
       </c>
       <c r="F109" s="30">
         <f>SUM(F104:F108)*$E$1</f>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="L109" s="30">
         <f>F109-B109</f>
-        <v>-100.00000000005821</v>
+        <v>-6600</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
@@ -6806,7 +6806,7 @@
       </c>
       <c r="B114" s="30">
         <f>VLOOKUP($B111,计算用!A:G,2,FALSE)</f>
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="C114" s="35">
         <v>1</v>
@@ -6822,11 +6822,11 @@
       </c>
       <c r="G114" s="71">
         <f>B114/$E$1*10000</f>
-        <v>103.74999999999999</v>
+        <v>104.99999999999999</v>
       </c>
       <c r="H114" s="71">
         <f>B114/$E$1*10000/8</f>
-        <v>12.968749999999998</v>
+        <v>13.124999999999998</v>
       </c>
       <c r="I114" s="37">
         <f>F114/8</f>
@@ -6834,7 +6834,7 @@
       </c>
       <c r="J114" s="71">
         <f>H114/E114</f>
-        <v>12.968749999999998</v>
+        <v>13.124999999999998</v>
       </c>
       <c r="K114" s="37">
         <f>I114/E114</f>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="B115" s="30">
         <f>VLOOKUP($B111,计算用!A:G,3,FALSE)</f>
-        <v>2.0699999999999998</v>
+        <v>2.11</v>
       </c>
       <c r="C115" s="35">
         <v>2</v>
@@ -6863,11 +6863,11 @@
       </c>
       <c r="G115" s="71">
         <f t="shared" ref="G115:G118" si="22">B115/$E$1*10000</f>
-        <v>258.75</v>
+        <v>263.75</v>
       </c>
       <c r="H115" s="71">
         <f t="shared" ref="H115:H118" si="23">B115/$E$1*10000/8</f>
-        <v>32.34375</v>
+        <v>32.96875</v>
       </c>
       <c r="I115" s="37">
         <f>F115/8</f>
@@ -6875,7 +6875,7 @@
       </c>
       <c r="J115" s="71">
         <f>H115/E115</f>
-        <v>32.34375</v>
+        <v>32.96875</v>
       </c>
       <c r="K115" s="37">
         <f>I115/E115</f>
@@ -6888,7 +6888,7 @@
       </c>
       <c r="B116" s="30">
         <f>VLOOKUP($B111,计算用!A:G,4,FALSE)</f>
-        <v>5.07</v>
+        <v>5.15</v>
       </c>
       <c r="C116" s="35">
         <v>3</v>
@@ -6904,11 +6904,11 @@
       </c>
       <c r="G116" s="71">
         <f t="shared" si="22"/>
-        <v>633.75</v>
+        <v>643.75</v>
       </c>
       <c r="H116" s="71">
         <f t="shared" si="23"/>
-        <v>79.21875</v>
+        <v>80.46875</v>
       </c>
       <c r="I116" s="37">
         <f>F116/8</f>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="J116" s="71">
         <f>H116/E116</f>
-        <v>39.609375</v>
+        <v>40.234375</v>
       </c>
       <c r="K116" s="37">
         <f>I116/E116</f>
@@ -6929,7 +6929,7 @@
       </c>
       <c r="B117" s="30">
         <f>VLOOKUP($B111,计算用!A:G,5,FALSE)</f>
-        <v>2.2999999999999998</v>
+        <v>2.34</v>
       </c>
       <c r="C117" s="35">
         <v>4</v>
@@ -6945,11 +6945,11 @@
       </c>
       <c r="G117" s="71">
         <f t="shared" si="22"/>
-        <v>287.5</v>
+        <v>292.5</v>
       </c>
       <c r="H117" s="71">
         <f t="shared" si="23"/>
-        <v>35.9375</v>
+        <v>36.5625</v>
       </c>
       <c r="I117" s="37">
         <f>F117/8</f>
@@ -6957,7 +6957,7 @@
       </c>
       <c r="J117" s="71">
         <f>H117/E117</f>
-        <v>17.96875</v>
+        <v>18.28125</v>
       </c>
       <c r="K117" s="37">
         <f>I117/E117</f>
@@ -6970,7 +6970,7 @@
       </c>
       <c r="B118" s="30">
         <f>VLOOKUP($B111,计算用!A:G,6,FALSE)</f>
-        <v>10.37</v>
+        <v>10.53</v>
       </c>
       <c r="C118" s="35">
         <v>5</v>
@@ -6986,11 +6986,11 @@
       </c>
       <c r="G118" s="71">
         <f t="shared" si="22"/>
-        <v>1296.25</v>
+        <v>1316.25</v>
       </c>
       <c r="H118" s="71">
         <f t="shared" si="23"/>
-        <v>162.03125</v>
+        <v>164.53125</v>
       </c>
       <c r="I118" s="37">
         <f>F118/8</f>
@@ -6998,7 +6998,7 @@
       </c>
       <c r="J118" s="71">
         <f>H118/E118</f>
-        <v>27.005208333333332</v>
+        <v>27.421875</v>
       </c>
       <c r="K118" s="37">
         <f>I118/E118</f>
@@ -7008,7 +7008,7 @@
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B119" s="30">
         <f>SUM(B114:B118)*10000</f>
-        <v>206400</v>
+        <v>209700</v>
       </c>
       <c r="F119" s="30">
         <f>SUM(F114:F118)*$E$1</f>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="L119" s="30">
         <f>F119-B119</f>
-        <v>-320</v>
+        <v>-3620</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
@@ -7067,7 +7067,7 @@
       </c>
       <c r="B124" s="30">
         <f>VLOOKUP($B121,计算用!A:G,2,FALSE)</f>
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="C124" s="35">
         <v>1</v>
@@ -7083,11 +7083,11 @@
       </c>
       <c r="G124" s="71">
         <f>B124/$E$1*10000</f>
-        <v>103.74999999999999</v>
+        <v>104.99999999999999</v>
       </c>
       <c r="H124" s="71">
         <f>B124/$E$1*10000/8</f>
-        <v>12.968749999999998</v>
+        <v>13.124999999999998</v>
       </c>
       <c r="I124" s="37">
         <f>F124/8</f>
@@ -7095,7 +7095,7 @@
       </c>
       <c r="J124" s="71">
         <f>H124/E124</f>
-        <v>12.968749999999998</v>
+        <v>13.124999999999998</v>
       </c>
       <c r="K124" s="37">
         <f>I124/E124</f>
@@ -7108,7 +7108,7 @@
       </c>
       <c r="B125" s="30">
         <f>VLOOKUP($B121,计算用!A:G,3,FALSE)</f>
-        <v>2.0699999999999998</v>
+        <v>2.11</v>
       </c>
       <c r="C125" s="35">
         <v>2</v>
@@ -7124,11 +7124,11 @@
       </c>
       <c r="G125" s="71">
         <f t="shared" ref="G125:G128" si="24">B125/$E$1*10000</f>
-        <v>258.75</v>
+        <v>263.75</v>
       </c>
       <c r="H125" s="71">
         <f t="shared" ref="H125:H128" si="25">B125/$E$1*10000/8</f>
-        <v>32.34375</v>
+        <v>32.96875</v>
       </c>
       <c r="I125" s="37">
         <f>F125/8</f>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="J125" s="71">
         <f>H125/E125</f>
-        <v>32.34375</v>
+        <v>32.96875</v>
       </c>
       <c r="K125" s="37">
         <f>I125/E125</f>
@@ -7149,7 +7149,7 @@
       </c>
       <c r="B126" s="30">
         <f>VLOOKUP($B121,计算用!A:G,4,FALSE)</f>
-        <v>5.07</v>
+        <v>5.15</v>
       </c>
       <c r="C126" s="35">
         <v>3</v>
@@ -7165,11 +7165,11 @@
       </c>
       <c r="G126" s="71">
         <f t="shared" si="24"/>
-        <v>633.75</v>
+        <v>643.75</v>
       </c>
       <c r="H126" s="71">
         <f t="shared" si="25"/>
-        <v>79.21875</v>
+        <v>80.46875</v>
       </c>
       <c r="I126" s="37">
         <f>F126/8</f>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="J126" s="71">
         <f>H126/E126</f>
-        <v>39.609375</v>
+        <v>40.234375</v>
       </c>
       <c r="K126" s="37">
         <f>I126/E126</f>
@@ -7190,7 +7190,7 @@
       </c>
       <c r="B127" s="30">
         <f>VLOOKUP($B121,计算用!A:G,5,FALSE)</f>
-        <v>2.2999999999999998</v>
+        <v>2.34</v>
       </c>
       <c r="C127" s="35">
         <v>4</v>
@@ -7206,11 +7206,11 @@
       </c>
       <c r="G127" s="71">
         <f t="shared" si="24"/>
-        <v>287.5</v>
+        <v>292.5</v>
       </c>
       <c r="H127" s="71">
         <f t="shared" si="25"/>
-        <v>35.9375</v>
+        <v>36.5625</v>
       </c>
       <c r="I127" s="37">
         <f>F127/8</f>
@@ -7218,7 +7218,7 @@
       </c>
       <c r="J127" s="71">
         <f>H127/E127</f>
-        <v>35.9375</v>
+        <v>36.5625</v>
       </c>
       <c r="K127" s="37">
         <f>I127/E127</f>
@@ -7231,7 +7231,7 @@
       </c>
       <c r="B128" s="30">
         <f>VLOOKUP($B121,计算用!A:G,6,FALSE)</f>
-        <v>10.37</v>
+        <v>10.53</v>
       </c>
       <c r="C128" s="35">
         <v>5</v>
@@ -7247,11 +7247,11 @@
       </c>
       <c r="G128" s="71">
         <f t="shared" si="24"/>
-        <v>1296.25</v>
+        <v>1316.25</v>
       </c>
       <c r="H128" s="71">
         <f t="shared" si="25"/>
-        <v>162.03125</v>
+        <v>164.53125</v>
       </c>
       <c r="I128" s="37">
         <f>F128/8</f>
@@ -7259,7 +7259,7 @@
       </c>
       <c r="J128" s="71">
         <f>H128/E128</f>
-        <v>54.010416666666664</v>
+        <v>54.84375</v>
       </c>
       <c r="K128" s="37">
         <f>I128/E128</f>
@@ -7269,7 +7269,7 @@
     <row r="129" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B129" s="30">
         <f>SUM(B124:B128)*10000</f>
-        <v>206400</v>
+        <v>209700</v>
       </c>
       <c r="F129" s="30">
         <f>SUM(F124:F128)*$E$1</f>
@@ -7277,17 +7277,17 @@
       </c>
       <c r="L129" s="30">
         <f>F129-B129</f>
-        <v>-320</v>
+        <v>-3620</v>
       </c>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.2">
       <c r="L130" s="72">
         <f>L129+L119+L109+L99+L89+L79+L69+L59+L49+L39+L29+L19+L9</f>
-        <v>-3240.000000000291</v>
+        <v>-2839.9999999998836</v>
       </c>
       <c r="M130" s="30">
         <f>L130/80/8</f>
-        <v>-5.0625000000004547</v>
+        <v>-4.4374999999998179</v>
       </c>
     </row>
   </sheetData>

--- a/系统/法院系统/报价公式.xlsx
+++ b/系统/法院系统/报价公式.xlsx
@@ -1390,89 +1390,89 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="38" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1798,8 +1798,8 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1812,24 +1812,24 @@
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="12.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="103" t="str">
         <f>G2&amp;"省司法行政综合管理系统二次开发、实施部署、培训、运维报价确认函（全省"&amp;SUM(G3:G5)&amp;"家）"</f>
         <v>江苏省司法行政综合管理系统二次开发、实施部署、培训、运维报价确认函（全省121家）</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
     </row>
     <row r="2" spans="1:13" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1873,7 +1873,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="104" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1882,15 +1882,15 @@
       <c r="C3" s="3">
         <v>350000</v>
       </c>
-      <c r="D3" s="98">
+      <c r="D3" s="106">
         <f>880000*0.64</f>
         <v>563200</v>
       </c>
-      <c r="E3" s="98">
+      <c r="E3" s="106">
         <f>60000*0.4</f>
         <v>24000</v>
       </c>
-      <c r="F3" s="88">
+      <c r="F3" s="95">
         <f>36000*0.4</f>
         <v>14400</v>
       </c>
@@ -1924,16 +1924,16 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="97"/>
+      <c r="A4" s="105"/>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
         <v>200000</v>
       </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="89"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="96"/>
       <c r="G4" s="47">
         <f>VLOOKUP(G$2,各省单位数!A:D,3,FALSE)</f>
         <v>13</v>
@@ -1964,16 +1964,16 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="97"/>
+      <c r="A5" s="105"/>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3">
         <v>300000</v>
       </c>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="89"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="96"/>
       <c r="G5" s="47">
         <f>VLOOKUP(G$2,各省单位数!A:D,4,FALSE)</f>
         <v>107</v>
@@ -2004,16 +2004,16 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="97"/>
+      <c r="A6" s="105"/>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3">
         <v>200000</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="93"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="107"/>
       <c r="G6" s="5" t="s">
         <v>11</v>
       </c>
@@ -2043,7 +2043,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="110" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -2052,22 +2052,22 @@
       <c r="C7" s="7">
         <v>100000</v>
       </c>
-      <c r="D7" s="88">
+      <c r="D7" s="95">
         <f>880000*0.12</f>
         <v>105600</v>
       </c>
-      <c r="E7" s="88">
+      <c r="E7" s="95">
         <f>60000*0.2</f>
         <v>12000</v>
       </c>
-      <c r="F7" s="88">
+      <c r="F7" s="95">
         <f>36000*0.2</f>
         <v>7200</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="84">
+      <c r="H7" s="99">
         <f>D7*G3+E7*G4+F7*G5</f>
         <v>1032000</v>
       </c>
@@ -2093,18 +2093,18 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="92"/>
+      <c r="A8" s="110"/>
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>200000</v>
       </c>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="85"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="100"/>
       <c r="I8" s="46">
         <f>各模块详细工作量测算!F54*80</f>
         <v>16640</v>
@@ -2127,18 +2127,18 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="92"/>
+      <c r="A9" s="110"/>
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="7">
         <v>100000</v>
       </c>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="86"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="108"/>
       <c r="I9" s="46">
         <f>各模块详细工作量测算!F64*80</f>
         <v>8320</v>
@@ -2161,7 +2161,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="109" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -2170,22 +2170,22 @@
       <c r="C10" s="9">
         <v>100000</v>
       </c>
-      <c r="D10" s="88">
+      <c r="D10" s="95">
         <f>880000*0.18</f>
         <v>158400</v>
       </c>
-      <c r="E10" s="88">
+      <c r="E10" s="95">
         <f>60000*0.3</f>
         <v>18000</v>
       </c>
-      <c r="F10" s="88">
+      <c r="F10" s="95">
         <f>36000*0.3</f>
         <v>10800</v>
       </c>
-      <c r="G10" s="90" t="s">
+      <c r="G10" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="84">
+      <c r="H10" s="99">
         <f>D10*G3+E10*G4+F10*G5</f>
         <v>1548000</v>
       </c>
@@ -2211,18 +2211,18 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="87"/>
+      <c r="A11" s="109"/>
       <c r="B11" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="9">
         <v>100000</v>
       </c>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="85"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="100"/>
       <c r="I11" s="46">
         <f>各模块详细工作量测算!F84*80</f>
         <v>8320</v>
@@ -2245,18 +2245,18 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="87"/>
+      <c r="A12" s="109"/>
       <c r="B12" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="9">
         <v>200000</v>
       </c>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="85"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="100"/>
       <c r="I12" s="46">
         <f>各模块详细工作量测算!F94*80</f>
         <v>16640</v>
@@ -2279,18 +2279,18 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="87"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="9">
         <v>200000</v>
       </c>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="85"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="100"/>
       <c r="I13" s="46">
         <f>各模块详细工作量测算!F104*80</f>
         <v>16640</v>
@@ -2313,7 +2313,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="99" t="s">
+      <c r="A14" s="101" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -2322,22 +2322,22 @@
       <c r="C14" s="11">
         <v>100000</v>
       </c>
-      <c r="D14" s="88">
+      <c r="D14" s="95">
         <f>880000*0.06</f>
         <v>52800</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="95">
         <f>60000*0.1</f>
         <v>6000</v>
       </c>
-      <c r="F14" s="88">
+      <c r="F14" s="95">
         <f>36000*0.1</f>
         <v>3600</v>
       </c>
-      <c r="G14" s="90" t="s">
+      <c r="G14" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="84">
+      <c r="H14" s="99">
         <f>D14*G3+E14*G4+F14*G5</f>
         <v>516000</v>
       </c>
@@ -2363,18 +2363,18 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="100"/>
+      <c r="A15" s="102"/>
       <c r="B15" s="53" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="54">
         <v>100000</v>
       </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="85"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="100"/>
       <c r="I15" s="46">
         <f>各模块详细工作量测算!F124*80</f>
         <v>8320</v>
@@ -2484,20 +2484,20 @@
       </c>
     </row>
     <row r="19" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="105" t="s">
+      <c r="A19" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="106" t="s">
+      <c r="B19" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="106"/>
+      <c r="C19" s="89"/>
       <c r="D19" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="107" t="s">
+      <c r="E19" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="107"/>
+      <c r="F19" s="90"/>
       <c r="G19" s="18" t="s">
         <v>29</v>
       </c>
@@ -2505,16 +2505,16 @@
       <c r="L19" s="83"/>
     </row>
     <row r="20" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="105"/>
-      <c r="B20" s="106" t="s">
+      <c r="A20" s="88"/>
+      <c r="B20" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="106"/>
+      <c r="C20" s="89"/>
       <c r="D20" s="20">
         <v>50000</v>
       </c>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
       <c r="G20" s="20"/>
       <c r="H20" s="18">
         <f>D20*G20</f>
@@ -2528,16 +2528,16 @@
       <c r="O20" s="29"/>
     </row>
     <row r="21" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="105"/>
-      <c r="B21" s="108" t="s">
+      <c r="A21" s="88"/>
+      <c r="B21" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="108"/>
+      <c r="C21" s="91"/>
       <c r="D21" s="20">
         <v>100000</v>
       </c>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
       <c r="G21" s="20"/>
       <c r="H21" s="18">
         <f>D21*G21</f>
@@ -2550,30 +2550,30 @@
       </c>
     </row>
     <row r="22" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="105"/>
-      <c r="B22" s="108" t="s">
+      <c r="A22" s="88"/>
+      <c r="B22" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="108"/>
-      <c r="D22" s="107" t="s">
+      <c r="C22" s="91"/>
+      <c r="D22" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
       <c r="H22" s="18"/>
       <c r="L22" s="83"/>
     </row>
     <row r="23" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="105"/>
-      <c r="B23" s="109" t="s">
+      <c r="A23" s="88"/>
+      <c r="B23" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="111"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="94"/>
       <c r="H23" s="18">
         <f>H20+H21+H22</f>
         <v>0</v>
@@ -2587,15 +2587,15 @@
       </c>
     </row>
     <row r="24" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="101" t="s">
+      <c r="A24" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="102"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="103"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="86"/>
       <c r="H24" s="28">
         <f>H18+H23</f>
         <v>5512000</v>
@@ -2609,14 +2609,14 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="104"/>
-      <c r="B25" s="104"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
+      <c r="A25" s="87"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
@@ -2624,14 +2624,14 @@
       <c r="M25" s="17"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="104"/>
-      <c r="B26" s="104"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
+      <c r="A26" s="87"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
@@ -2639,14 +2639,14 @@
       <c r="M26" s="17"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="104"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="104"/>
+      <c r="A27" s="87"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
@@ -2654,14 +2654,14 @@
       <c r="M27" s="17"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="104"/>
-      <c r="B28" s="104"/>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104"/>
+      <c r="A28" s="87"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
@@ -2669,14 +2669,14 @@
       <c r="M28" s="17"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="104"/>
-      <c r="B29" s="104"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
+      <c r="A29" s="87"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
@@ -2684,14 +2684,14 @@
       <c r="M29" s="17"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="104"/>
-      <c r="B30" s="104"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
+      <c r="A30" s="87"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="87"/>
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
@@ -2699,14 +2699,14 @@
       <c r="M30" s="17"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="104"/>
-      <c r="B31" s="104"/>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
+      <c r="A31" s="87"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="87"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>
@@ -2714,14 +2714,14 @@
       <c r="M31" s="17"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="104"/>
-      <c r="B32" s="104"/>
-      <c r="C32" s="104"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
+      <c r="A32" s="87"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="87"/>
       <c r="I32" s="17"/>
       <c r="J32" s="17"/>
       <c r="K32" s="17"/>
@@ -2729,14 +2729,14 @@
       <c r="M32" s="17"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="104"/>
-      <c r="B33" s="104"/>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
+      <c r="A33" s="87"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="87"/>
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
       <c r="K33" s="17"/>
@@ -2744,14 +2744,14 @@
       <c r="M33" s="17"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="104"/>
-      <c r="B34" s="104"/>
-      <c r="C34" s="104"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
@@ -2759,27 +2759,50 @@
       <c r="M34" s="17"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="104"/>
-      <c r="B35" s="104"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
+      <c r="A35" s="87"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="87"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="104"/>
-      <c r="B36" s="104"/>
-      <c r="C36" s="104"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="104"/>
+      <c r="A36" s="87"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
     <mergeCell ref="A24:G24"/>
     <mergeCell ref="A25:H36"/>
     <mergeCell ref="A19:A23"/>
@@ -2792,29 +2815,6 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="B23:G23"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:G9"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2839,7 +2839,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2914,27 +2914,27 @@
       </c>
       <c r="B3" s="77">
         <f>B2*$J$3</f>
-        <v>17.920000000000002</v>
+        <v>30400</v>
       </c>
       <c r="C3" s="77">
         <f t="shared" ref="C3:F3" si="0">C2*$J$3</f>
-        <v>44.800000000000004</v>
+        <v>76000</v>
       </c>
       <c r="D3" s="77">
         <f t="shared" si="0"/>
-        <v>112</v>
+        <v>190000</v>
       </c>
       <c r="E3" s="77">
         <f t="shared" si="0"/>
-        <v>49.28</v>
+        <v>83600</v>
       </c>
       <c r="F3" s="77">
         <f t="shared" si="0"/>
-        <v>224</v>
+        <v>380000</v>
       </c>
       <c r="G3" s="74">
         <f>SUM(B3:F3)</f>
-        <v>448</v>
+        <v>760000</v>
       </c>
       <c r="H3" s="68"/>
       <c r="I3" s="65">
@@ -2942,7 +2942,7 @@
         <v>5512000</v>
       </c>
       <c r="J3" s="65">
-        <v>448</v>
+        <v>760000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2950,23 +2950,23 @@
         <v>80</v>
       </c>
       <c r="B4" s="52">
-        <v>18</v>
+        <v>30400</v>
       </c>
       <c r="C4" s="52">
-        <v>45</v>
+        <v>76000</v>
       </c>
       <c r="D4" s="52">
-        <v>110</v>
+        <v>190000</v>
       </c>
       <c r="E4" s="52">
-        <v>50</v>
+        <v>83600</v>
       </c>
       <c r="F4" s="52">
-        <v>225</v>
+        <v>380000</v>
       </c>
       <c r="G4" s="67">
         <f>SUM(B4:F4)</f>
-        <v>448</v>
+        <v>760000</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -2975,27 +2975,27 @@
       </c>
       <c r="B5" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!B$4/SUM(报价函!$C$3:$C$6)*报价函!$C3,2)</f>
-        <v>2.63</v>
+        <v>4441.6099999999997</v>
       </c>
       <c r="C5" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!C$4/SUM(报价函!$C$3:$C$6)*报价函!$C3,2)</f>
-        <v>6.57</v>
+        <v>11104.02</v>
       </c>
       <c r="D5" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!D$4/SUM(报价函!$C$3:$C$6)*报价函!$C3,2)</f>
-        <v>16.07</v>
+        <v>27760.04</v>
       </c>
       <c r="E5" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!E$4/SUM(报价函!$C$3:$C$6)*报价函!$C3,2)</f>
-        <v>7.31</v>
+        <v>12214.42</v>
       </c>
       <c r="F5" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!F$4/SUM(报价函!$C$3:$C$6)*报价函!$C3,2)</f>
-        <v>32.869999999999997</v>
+        <v>55520.08</v>
       </c>
       <c r="G5" s="24">
         <f t="shared" ref="G5:G17" si="1">SUM(B5:F5)</f>
-        <v>65.449999999999989</v>
+        <v>111040.17</v>
       </c>
       <c r="H5" s="66"/>
       <c r="I5" s="66"/>
@@ -3007,27 +3007,27 @@
       </c>
       <c r="B6" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!B$4/SUM(报价函!$C$3:$C$6)*报价函!$C4,2)</f>
-        <v>1.5</v>
+        <v>2538.06</v>
       </c>
       <c r="C6" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!C$4/SUM(报价函!$C$3:$C$6)*报价函!$C4,2)</f>
-        <v>3.76</v>
+        <v>6345.15</v>
       </c>
       <c r="D6" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!D$4/SUM(报价函!$C$3:$C$6)*报价函!$C4,2)</f>
-        <v>9.18</v>
+        <v>15862.88</v>
       </c>
       <c r="E6" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!E$4/SUM(报价函!$C$3:$C$6)*报价函!$C4,2)</f>
-        <v>4.17</v>
+        <v>6979.67</v>
       </c>
       <c r="F6" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!F$4/SUM(报价函!$C$3:$C$6)*报价函!$C4,2)</f>
-        <v>18.78</v>
+        <v>31725.759999999998</v>
       </c>
       <c r="G6" s="24">
         <f t="shared" si="1"/>
-        <v>37.39</v>
+        <v>63451.51999999999</v>
       </c>
       <c r="H6" s="66"/>
       <c r="I6" s="66"/>
@@ -3039,27 +3039,27 @@
       </c>
       <c r="B7" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!B$4/SUM(报价函!$C$3:$C$6)*报价函!$C5,2)</f>
-        <v>2.25</v>
+        <v>3807.09</v>
       </c>
       <c r="C7" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!C$4/SUM(报价函!$C$3:$C$6)*报价函!$C5,2)</f>
-        <v>5.64</v>
+        <v>9517.73</v>
       </c>
       <c r="D7" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!D$4/SUM(报价函!$C$3:$C$6)*报价函!$C5,2)</f>
-        <v>13.78</v>
+        <v>23794.32</v>
       </c>
       <c r="E7" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!E$4/SUM(报价函!$C$3:$C$6)*报价函!$C5,2)</f>
-        <v>6.26</v>
+        <v>10469.5</v>
       </c>
       <c r="F7" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!F$4/SUM(报价函!$C$3:$C$6)*报价函!$C5,2)</f>
-        <v>28.18</v>
+        <v>47588.639999999999</v>
       </c>
       <c r="G7" s="24">
         <f t="shared" si="1"/>
-        <v>56.11</v>
+        <v>95177.279999999999</v>
       </c>
       <c r="H7" s="66"/>
       <c r="I7" s="66"/>
@@ -3071,27 +3071,27 @@
       </c>
       <c r="B8" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!B$4/SUM(报价函!$C$3:$C$6)*报价函!$C6,2)</f>
-        <v>1.5</v>
+        <v>2538.06</v>
       </c>
       <c r="C8" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!C$4/SUM(报价函!$C$3:$C$6)*报价函!$C6,2)</f>
-        <v>3.76</v>
+        <v>6345.15</v>
       </c>
       <c r="D8" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!D$4/SUM(报价函!$C$3:$C$6)*报价函!$C6,2)</f>
-        <v>9.18</v>
+        <v>15862.88</v>
       </c>
       <c r="E8" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!E$4/SUM(报价函!$C$3:$C$6)*报价函!$C6,2)</f>
-        <v>4.17</v>
+        <v>6979.67</v>
       </c>
       <c r="F8" s="24">
         <f>ROUND(报价函!$H$6/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!F$4/SUM(报价函!$C$3:$C$6)*报价函!$C6,2)</f>
-        <v>18.78</v>
+        <v>31725.759999999998</v>
       </c>
       <c r="G8" s="24">
         <f t="shared" si="1"/>
-        <v>37.39</v>
+        <v>63451.51999999999</v>
       </c>
       <c r="H8" s="66"/>
       <c r="I8" s="66"/>
@@ -3103,27 +3103,27 @@
       </c>
       <c r="B9" s="24">
         <f>ROUND(报价函!$H$7/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!B$4/SUM(报价函!$C$7:$C$9)*报价函!$C7,2)</f>
-        <v>0.84</v>
+        <v>1422.93</v>
       </c>
       <c r="C9" s="24">
         <f>ROUND(报价函!$H$7/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!C$4/SUM(报价函!$C$7:$C$9)*报价函!$C7,2)</f>
-        <v>2.11</v>
+        <v>3557.33</v>
       </c>
       <c r="D9" s="24">
         <f>ROUND(报价函!$H$7/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!D$4/SUM(报价函!$C$7:$C$9)*报价函!$C7,2)</f>
-        <v>5.15</v>
+        <v>8893.32</v>
       </c>
       <c r="E9" s="24">
         <f>ROUND(报价函!$H$7/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!E$4/SUM(报价函!$C$7:$C$9)*报价函!$C7,2)</f>
-        <v>2.34</v>
+        <v>3913.06</v>
       </c>
       <c r="F9" s="24">
         <f>ROUND(报价函!$H$7/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!F$4/SUM(报价函!$C$7:$C$9)*报价函!$C7,2)</f>
-        <v>10.53</v>
+        <v>17786.650000000001</v>
       </c>
       <c r="G9" s="24">
         <f t="shared" si="1"/>
-        <v>20.97</v>
+        <v>35573.29</v>
       </c>
       <c r="H9" s="66"/>
       <c r="I9" s="66"/>
@@ -3135,27 +3135,27 @@
       </c>
       <c r="B10" s="24">
         <f>ROUND(报价函!$H$7/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!B$4/SUM(报价函!$C$7:$C$9)*报价函!$C8,2)</f>
-        <v>1.69</v>
+        <v>2845.86</v>
       </c>
       <c r="C10" s="24">
         <f>ROUND(报价函!$H$7/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!C$4/SUM(报价函!$C$7:$C$9)*报价函!$C8,2)</f>
-        <v>4.21</v>
+        <v>7114.66</v>
       </c>
       <c r="D10" s="24">
         <f>ROUND(报价函!$H$7/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!D$4/SUM(报价函!$C$7:$C$9)*报价函!$C8,2)</f>
-        <v>10.3</v>
+        <v>17786.650000000001</v>
       </c>
       <c r="E10" s="24">
         <f>ROUND(报价函!$H$7/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!E$4/SUM(报价函!$C$7:$C$9)*报价函!$C8,2)</f>
-        <v>4.68</v>
+        <v>7826.12</v>
       </c>
       <c r="F10" s="24">
         <f>ROUND(报价函!$H$7/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!F$4/SUM(报价函!$C$7:$C$9)*报价函!$C8,2)</f>
-        <v>21.06</v>
+        <v>35573.29</v>
       </c>
       <c r="G10" s="24">
         <f t="shared" si="1"/>
-        <v>41.94</v>
+        <v>71146.58</v>
       </c>
       <c r="H10" s="66"/>
       <c r="I10" s="66"/>
@@ -3167,27 +3167,27 @@
       </c>
       <c r="B11" s="24">
         <f>ROUND(报价函!$H$7/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!B$4/SUM(报价函!$C$7:$C$9)*报价函!$C9,2)</f>
-        <v>0.84</v>
+        <v>1422.93</v>
       </c>
       <c r="C11" s="24">
         <f>ROUND(报价函!$H$7/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!C$4/SUM(报价函!$C$7:$C$9)*报价函!$C9,2)</f>
-        <v>2.11</v>
+        <v>3557.33</v>
       </c>
       <c r="D11" s="24">
         <f>ROUND(报价函!$H$7/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!D$4/SUM(报价函!$C$7:$C$9)*报价函!$C9,2)</f>
-        <v>5.15</v>
+        <v>8893.32</v>
       </c>
       <c r="E11" s="24">
         <f>ROUND(报价函!$H$7/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!E$4/SUM(报价函!$C$7:$C$9)*报价函!$C9,2)</f>
-        <v>2.34</v>
+        <v>3913.06</v>
       </c>
       <c r="F11" s="24">
         <f>ROUND(报价函!$H$7/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!F$4/SUM(报价函!$C$7:$C$9)*报价函!$C9,2)</f>
-        <v>10.53</v>
+        <v>17786.650000000001</v>
       </c>
       <c r="G11" s="24">
         <f t="shared" si="1"/>
-        <v>20.97</v>
+        <v>35573.29</v>
       </c>
       <c r="H11" s="66"/>
       <c r="I11" s="66"/>
@@ -3199,27 +3199,27 @@
       </c>
       <c r="B12" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!B$4/SUM(报价函!$C$10:$C$13)*报价函!$C10,2)</f>
-        <v>0.84</v>
+        <v>1422.93</v>
       </c>
       <c r="C12" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!C$4/SUM(报价函!$C$10:$C$13)*报价函!$C10,2)</f>
-        <v>2.11</v>
+        <v>3557.33</v>
       </c>
       <c r="D12" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!D$4/SUM(报价函!$C$10:$C$13)*报价函!$C10,2)</f>
-        <v>5.15</v>
+        <v>8893.32</v>
       </c>
       <c r="E12" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!E$4/SUM(报价函!$C$10:$C$13)*报价函!$C10,2)</f>
-        <v>2.34</v>
+        <v>3913.06</v>
       </c>
       <c r="F12" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!F$4/SUM(报价函!$C$10:$C$13)*报价函!$C10,2)</f>
-        <v>10.53</v>
+        <v>17786.650000000001</v>
       </c>
       <c r="G12" s="24">
         <f t="shared" si="1"/>
-        <v>20.97</v>
+        <v>35573.29</v>
       </c>
       <c r="H12" s="66"/>
       <c r="I12" s="66"/>
@@ -3231,27 +3231,27 @@
       </c>
       <c r="B13" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!B$4/SUM(报价函!$C$10:$C$13)*报价函!$C11,2)</f>
-        <v>0.84</v>
+        <v>1422.93</v>
       </c>
       <c r="C13" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!C$4/SUM(报价函!$C$10:$C$13)*报价函!$C11,2)</f>
-        <v>2.11</v>
+        <v>3557.33</v>
       </c>
       <c r="D13" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!D$4/SUM(报价函!$C$10:$C$13)*报价函!$C11,2)</f>
-        <v>5.15</v>
+        <v>8893.32</v>
       </c>
       <c r="E13" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!E$4/SUM(报价函!$C$10:$C$13)*报价函!$C11,2)</f>
-        <v>2.34</v>
+        <v>3913.06</v>
       </c>
       <c r="F13" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!F$4/SUM(报价函!$C$10:$C$13)*报价函!$C11,2)</f>
-        <v>10.53</v>
+        <v>17786.650000000001</v>
       </c>
       <c r="G13" s="24">
         <f t="shared" si="1"/>
-        <v>20.97</v>
+        <v>35573.29</v>
       </c>
       <c r="H13" s="66"/>
       <c r="I13" s="66"/>
@@ -3263,27 +3263,27 @@
       </c>
       <c r="B14" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!B$4/SUM(报价函!$C$10:$C$13)*报价函!$C12,2)</f>
-        <v>1.69</v>
+        <v>2845.86</v>
       </c>
       <c r="C14" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!C$4/SUM(报价函!$C$10:$C$13)*报价函!$C12,2)</f>
-        <v>4.21</v>
+        <v>7114.66</v>
       </c>
       <c r="D14" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!D$4/SUM(报价函!$C$10:$C$13)*报价函!$C12,2)</f>
-        <v>10.3</v>
+        <v>17786.650000000001</v>
       </c>
       <c r="E14" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!E$4/SUM(报价函!$C$10:$C$13)*报价函!$C12,2)</f>
-        <v>4.68</v>
+        <v>7826.12</v>
       </c>
       <c r="F14" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!F$4/SUM(报价函!$C$10:$C$13)*报价函!$C12,2)</f>
-        <v>21.06</v>
+        <v>35573.29</v>
       </c>
       <c r="G14" s="24">
         <f t="shared" si="1"/>
-        <v>41.94</v>
+        <v>71146.58</v>
       </c>
       <c r="H14" s="66"/>
       <c r="I14" s="66"/>
@@ -3295,27 +3295,27 @@
       </c>
       <c r="B15" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!B$4/SUM(报价函!$C$10:$C$13)*报价函!$C13,2)</f>
-        <v>1.69</v>
+        <v>2845.86</v>
       </c>
       <c r="C15" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!C$4/SUM(报价函!$C$10:$C$13)*报价函!$C13,2)</f>
-        <v>4.21</v>
+        <v>7114.66</v>
       </c>
       <c r="D15" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!D$4/SUM(报价函!$C$10:$C$13)*报价函!$C13,2)</f>
-        <v>10.3</v>
+        <v>17786.650000000001</v>
       </c>
       <c r="E15" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!E$4/SUM(报价函!$C$10:$C$13)*报价函!$C13,2)</f>
-        <v>4.68</v>
+        <v>7826.12</v>
       </c>
       <c r="F15" s="24">
         <f>ROUND(报价函!$H$10/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!F$4/SUM(报价函!$C$10:$C$13)*报价函!$C13,2)</f>
-        <v>21.06</v>
+        <v>35573.29</v>
       </c>
       <c r="G15" s="24">
         <f t="shared" si="1"/>
-        <v>41.94</v>
+        <v>71146.58</v>
       </c>
       <c r="H15" s="66"/>
       <c r="I15" s="66"/>
@@ -3327,27 +3327,27 @@
       </c>
       <c r="B16" s="24">
         <f>ROUND(报价函!$H$14/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!B$4/SUM(报价函!$C$14:$C$15)*报价函!$C14,2)</f>
-        <v>0.84</v>
+        <v>1422.93</v>
       </c>
       <c r="C16" s="24">
         <f>ROUND(报价函!$H$14/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!C$4/SUM(报价函!$C$14:$C$15)*报价函!$C14,2)</f>
-        <v>2.11</v>
+        <v>3557.33</v>
       </c>
       <c r="D16" s="24">
         <f>ROUND(报价函!$H$14/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!D$4/SUM(报价函!$C$14:$C$15)*报价函!$C14,2)</f>
-        <v>5.15</v>
+        <v>8893.32</v>
       </c>
       <c r="E16" s="24">
         <f>ROUND(报价函!$H$14/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!E$4/SUM(报价函!$C$14:$C$15)*报价函!$C14,2)</f>
-        <v>2.34</v>
+        <v>3913.06</v>
       </c>
       <c r="F16" s="24">
         <f>ROUND(报价函!$H$14/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!F$4/SUM(报价函!$C$14:$C$15)*报价函!$C14,2)</f>
-        <v>10.53</v>
+        <v>17786.650000000001</v>
       </c>
       <c r="G16" s="24">
         <f t="shared" si="1"/>
-        <v>20.97</v>
+        <v>35573.29</v>
       </c>
       <c r="H16" s="66"/>
       <c r="I16" s="66"/>
@@ -3359,27 +3359,27 @@
       </c>
       <c r="B17" s="24">
         <f>ROUND(报价函!$H$14/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!B$4/SUM(报价函!$C$14:$C$15)*报价函!$C15,2)</f>
-        <v>0.84</v>
+        <v>1422.93</v>
       </c>
       <c r="C17" s="24">
         <f>ROUND(报价函!$H$14/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!C$4/SUM(报价函!$C$14:$C$15)*报价函!$C15,2)</f>
-        <v>2.11</v>
+        <v>3557.33</v>
       </c>
       <c r="D17" s="24">
         <f>ROUND(报价函!$H$14/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!D$4/SUM(报价函!$C$14:$C$15)*报价函!$C15,2)</f>
-        <v>5.15</v>
+        <v>8893.32</v>
       </c>
       <c r="E17" s="24">
         <f>ROUND(报价函!$H$14/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!E$4/SUM(报价函!$C$14:$C$15)*报价函!$C15,2)</f>
-        <v>2.34</v>
+        <v>3913.06</v>
       </c>
       <c r="F17" s="24">
         <f>ROUND(报价函!$H$14/(报价函!$H$6+报价函!$H$7+报价函!$H$10+报价函!$H$14)*计算用!F$4/SUM(报价函!$C$14:$C$15)*报价函!$C15,2)</f>
-        <v>10.53</v>
+        <v>17786.650000000001</v>
       </c>
       <c r="G17" s="24">
         <f t="shared" si="1"/>
-        <v>20.97</v>
+        <v>35573.29</v>
       </c>
       <c r="H17" s="66"/>
       <c r="I17" s="66"/>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="G18" s="67">
         <f>SUM(G5:G17)</f>
-        <v>447.98000000000013</v>
+        <v>759999.97</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -3935,7 +3935,7 @@
       </c>
       <c r="B4" s="30">
         <f>VLOOKUP($B1,计算用!A:G,2,FALSE)</f>
-        <v>2.63</v>
+        <v>4441.6099999999997</v>
       </c>
       <c r="C4" s="35">
         <v>1</v>
@@ -3951,11 +3951,11 @@
       </c>
       <c r="G4" s="71">
         <f>B4/$E$1*10000</f>
-        <v>328.75</v>
+        <v>555201.24999999988</v>
       </c>
       <c r="H4" s="71">
         <f>B4/$E$1*10000/8</f>
-        <v>41.09375</v>
+        <v>69400.156249999985</v>
       </c>
       <c r="I4" s="37">
         <f>F4/8</f>
@@ -3963,7 +3963,7 @@
       </c>
       <c r="J4" s="71">
         <f>H4/E4</f>
-        <v>4.109375</v>
+        <v>6940.0156249999982</v>
       </c>
       <c r="K4" s="37">
         <f>I4/E4</f>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B5" s="30">
         <f>VLOOKUP($B1,计算用!A:G,3,FALSE)</f>
-        <v>6.57</v>
+        <v>11104.02</v>
       </c>
       <c r="C5" s="35">
         <v>2</v>
@@ -3992,11 +3992,11 @@
       </c>
       <c r="G5" s="71">
         <f t="shared" ref="G5:G8" si="0">B5/$E$1*10000</f>
-        <v>821.25</v>
+        <v>1388002.5</v>
       </c>
       <c r="H5" s="71">
         <f t="shared" ref="H5:H8" si="1">B5/$E$1*10000/8</f>
-        <v>102.65625</v>
+        <v>173500.3125</v>
       </c>
       <c r="I5" s="37">
         <f>F5/8</f>
@@ -4004,7 +4004,7 @@
       </c>
       <c r="J5" s="71">
         <f>H5/E5</f>
-        <v>20.53125</v>
+        <v>34700.0625</v>
       </c>
       <c r="K5" s="37">
         <f>I5/E5</f>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="B6" s="30">
         <f>VLOOKUP($B1,计算用!A:G,4,FALSE)</f>
-        <v>16.07</v>
+        <v>27760.04</v>
       </c>
       <c r="C6" s="35">
         <v>3</v>
@@ -4033,11 +4033,11 @@
       </c>
       <c r="G6" s="71">
         <f t="shared" si="0"/>
-        <v>2008.75</v>
+        <v>3470005</v>
       </c>
       <c r="H6" s="71">
         <f t="shared" si="1"/>
-        <v>251.09375</v>
+        <v>433750.625</v>
       </c>
       <c r="I6" s="37">
         <f>F6/8</f>
@@ -4045,7 +4045,7 @@
       </c>
       <c r="J6" s="71">
         <f>H6/E6</f>
-        <v>125.546875</v>
+        <v>216875.3125</v>
       </c>
       <c r="K6" s="37">
         <f>I6/E6</f>
@@ -4058,7 +4058,7 @@
       </c>
       <c r="B7" s="30">
         <f>VLOOKUP($B1,计算用!A:G,5,FALSE)</f>
-        <v>7.31</v>
+        <v>12214.42</v>
       </c>
       <c r="C7" s="35">
         <v>4</v>
@@ -4074,11 +4074,11 @@
       </c>
       <c r="G7" s="71">
         <f t="shared" si="0"/>
-        <v>913.75</v>
+        <v>1526802.5</v>
       </c>
       <c r="H7" s="71">
         <f t="shared" si="1"/>
-        <v>114.21875</v>
+        <v>190850.3125</v>
       </c>
       <c r="I7" s="37">
         <f>F7/8</f>
@@ -4086,7 +4086,7 @@
       </c>
       <c r="J7" s="71">
         <f>H7/E7</f>
-        <v>28.5546875</v>
+        <v>47712.578125</v>
       </c>
       <c r="K7" s="37">
         <f>I7/E7</f>
@@ -4099,7 +4099,7 @@
       </c>
       <c r="B8" s="30">
         <f>VLOOKUP($B1,计算用!A:G,6,FALSE)</f>
-        <v>32.869999999999997</v>
+        <v>55520.08</v>
       </c>
       <c r="C8" s="35">
         <v>5</v>
@@ -4115,11 +4115,11 @@
       </c>
       <c r="G8" s="71">
         <f t="shared" si="0"/>
-        <v>4108.75</v>
+        <v>6940010</v>
       </c>
       <c r="H8" s="71">
         <f t="shared" si="1"/>
-        <v>513.59375</v>
+        <v>867501.25</v>
       </c>
       <c r="I8" s="37">
         <f>F8/8</f>
@@ -4127,7 +4127,7 @@
       </c>
       <c r="J8" s="71">
         <f>H8/E8</f>
-        <v>102.71875</v>
+        <v>173500.25</v>
       </c>
       <c r="K8" s="37">
         <f>I8/E8</f>
@@ -4137,7 +4137,7 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="30">
         <f>SUM(B4:B8)*10000</f>
-        <v>654499.99999999988</v>
+        <v>1110401700</v>
       </c>
       <c r="F9" s="30">
         <f>SUM(F4:F8)*E1</f>
@@ -4145,7 +4145,7 @@
       </c>
       <c r="L9" s="30">
         <f>F9-B9</f>
-        <v>14300.000000000116</v>
+        <v>-1109732900</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="B14" s="30">
         <f>VLOOKUP($B11,计算用!A:G,2,FALSE)</f>
-        <v>1.5</v>
+        <v>2538.06</v>
       </c>
       <c r="C14" s="35">
         <v>1</v>
@@ -4212,11 +4212,11 @@
       </c>
       <c r="G14" s="71">
         <f>B14/$E$1*10000</f>
-        <v>187.5</v>
+        <v>317257.5</v>
       </c>
       <c r="H14" s="71">
         <f>B14/$E$1*10000/8</f>
-        <v>23.4375</v>
+        <v>39657.1875</v>
       </c>
       <c r="I14" s="37">
         <f>F14/8</f>
@@ -4224,7 +4224,7 @@
       </c>
       <c r="J14" s="71">
         <f>H14/E14</f>
-        <v>5.859375</v>
+        <v>9914.296875</v>
       </c>
       <c r="K14" s="37">
         <f>I14/E14</f>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="B15" s="30">
         <f>VLOOKUP($B11,计算用!A:G,3,FALSE)</f>
-        <v>3.76</v>
+        <v>6345.15</v>
       </c>
       <c r="C15" s="35">
         <v>2</v>
@@ -4253,11 +4253,11 @@
       </c>
       <c r="G15" s="71">
         <f t="shared" ref="G15:G18" si="2">B15/$E$1*10000</f>
-        <v>470</v>
+        <v>793143.75</v>
       </c>
       <c r="H15" s="71">
         <f t="shared" ref="H15:H18" si="3">B15/$E$1*10000/8</f>
-        <v>58.75</v>
+        <v>99142.96875</v>
       </c>
       <c r="I15" s="37">
         <f>F15/8</f>
@@ -4265,7 +4265,7 @@
       </c>
       <c r="J15" s="71">
         <f>H15/E15</f>
-        <v>11.75</v>
+        <v>19828.59375</v>
       </c>
       <c r="K15" s="37">
         <f>I15/E15</f>
@@ -4278,7 +4278,7 @@
       </c>
       <c r="B16" s="30">
         <f>VLOOKUP($B11,计算用!A:G,4,FALSE)</f>
-        <v>9.18</v>
+        <v>15862.88</v>
       </c>
       <c r="C16" s="35">
         <v>3</v>
@@ -4294,11 +4294,11 @@
       </c>
       <c r="G16" s="71">
         <f t="shared" si="2"/>
-        <v>1147.5</v>
+        <v>1982860</v>
       </c>
       <c r="H16" s="71">
         <f t="shared" si="3"/>
-        <v>143.4375</v>
+        <v>247857.5</v>
       </c>
       <c r="I16" s="37">
         <f>F16/8</f>
@@ -4306,7 +4306,7 @@
       </c>
       <c r="J16" s="71">
         <f>H16/E16</f>
-        <v>71.71875</v>
+        <v>123928.75</v>
       </c>
       <c r="K16" s="37">
         <f>I16/E16</f>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="B17" s="30">
         <f>VLOOKUP($B11,计算用!A:G,5,FALSE)</f>
-        <v>4.17</v>
+        <v>6979.67</v>
       </c>
       <c r="C17" s="35">
         <v>4</v>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="G17" s="71">
         <f t="shared" si="2"/>
-        <v>521.25</v>
+        <v>872458.75</v>
       </c>
       <c r="H17" s="71">
         <f t="shared" si="3"/>
-        <v>65.15625</v>
+        <v>109057.34375</v>
       </c>
       <c r="I17" s="37">
         <f>F17/8</f>
@@ -4347,7 +4347,7 @@
       </c>
       <c r="J17" s="71">
         <f>H17/E17</f>
-        <v>16.2890625</v>
+        <v>27264.3359375</v>
       </c>
       <c r="K17" s="37">
         <f>I17/E17</f>
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B18" s="30">
         <f>VLOOKUP($B11,计算用!A:G,6,FALSE)</f>
-        <v>18.78</v>
+        <v>31725.759999999998</v>
       </c>
       <c r="C18" s="35">
         <v>5</v>
@@ -4376,11 +4376,11 @@
       </c>
       <c r="G18" s="71">
         <f t="shared" si="2"/>
-        <v>2347.5</v>
+        <v>3965720</v>
       </c>
       <c r="H18" s="71">
         <f t="shared" si="3"/>
-        <v>293.4375</v>
+        <v>495715</v>
       </c>
       <c r="I18" s="37">
         <f>F18/8</f>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="J18" s="71">
         <f>H18/E18</f>
-        <v>58.6875</v>
+        <v>99143</v>
       </c>
       <c r="K18" s="37">
         <f>I18/E18</f>
@@ -4398,7 +4398,7 @@
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B19" s="30">
         <f>SUM(B14:B18)*10000</f>
-        <v>373900</v>
+        <v>634515199.99999988</v>
       </c>
       <c r="F19" s="30">
         <f>SUM(F14:F18)*$E$1</f>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="L19" s="30">
         <f>F19-B19</f>
-        <v>8180</v>
+        <v>-634133119.99999988</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -4457,7 +4457,7 @@
       </c>
       <c r="B24" s="30">
         <f>VLOOKUP($B21,计算用!A:G,2,FALSE)</f>
-        <v>2.25</v>
+        <v>3807.09</v>
       </c>
       <c r="C24" s="35">
         <v>1</v>
@@ -4473,11 +4473,11 @@
       </c>
       <c r="G24" s="71">
         <f>B24/$E$1*10000</f>
-        <v>281.25</v>
+        <v>475886.25</v>
       </c>
       <c r="H24" s="71">
         <f>B24/$E$1*10000/8</f>
-        <v>35.15625</v>
+        <v>59485.78125</v>
       </c>
       <c r="I24" s="37">
         <f>F24/8</f>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="J24" s="71">
         <f>H24/E24</f>
-        <v>8.7890625</v>
+        <v>14871.4453125</v>
       </c>
       <c r="K24" s="37">
         <f>I24/E24</f>
@@ -4498,7 +4498,7 @@
       </c>
       <c r="B25" s="30">
         <f>VLOOKUP($B21,计算用!A:G,3,FALSE)</f>
-        <v>5.64</v>
+        <v>9517.73</v>
       </c>
       <c r="C25" s="35">
         <v>2</v>
@@ -4514,11 +4514,11 @@
       </c>
       <c r="G25" s="71">
         <f t="shared" ref="G25:G28" si="4">B25/$E$1*10000</f>
-        <v>704.99999999999989</v>
+        <v>1189716.25</v>
       </c>
       <c r="H25" s="71">
         <f t="shared" ref="H25:H28" si="5">B25/$E$1*10000/8</f>
-        <v>88.124999999999986</v>
+        <v>148714.53125</v>
       </c>
       <c r="I25" s="37">
         <f>F25/8</f>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="J25" s="71">
         <f>H25/E25</f>
-        <v>22.031249999999996</v>
+        <v>37178.6328125</v>
       </c>
       <c r="K25" s="37">
         <f>I25/E25</f>
@@ -4539,7 +4539,7 @@
       </c>
       <c r="B26" s="30">
         <f>VLOOKUP($B21,计算用!A:G,4,FALSE)</f>
-        <v>13.78</v>
+        <v>23794.32</v>
       </c>
       <c r="C26" s="35">
         <v>3</v>
@@ -4555,11 +4555,11 @@
       </c>
       <c r="G26" s="71">
         <f t="shared" si="4"/>
-        <v>1722.4999999999998</v>
+        <v>2974289.9999999995</v>
       </c>
       <c r="H26" s="71">
         <f t="shared" si="5"/>
-        <v>215.31249999999997</v>
+        <v>371786.24999999994</v>
       </c>
       <c r="I26" s="37">
         <f>F26/8</f>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="J26" s="71">
         <f>H26/E26</f>
-        <v>35.885416666666664</v>
+        <v>61964.374999999993</v>
       </c>
       <c r="K26" s="37">
         <f>I26/E26</f>
@@ -4580,7 +4580,7 @@
       </c>
       <c r="B27" s="30">
         <f>VLOOKUP($B21,计算用!A:G,5,FALSE)</f>
-        <v>6.26</v>
+        <v>10469.5</v>
       </c>
       <c r="C27" s="35">
         <v>4</v>
@@ -4596,11 +4596,11 @@
       </c>
       <c r="G27" s="71">
         <f t="shared" si="4"/>
-        <v>782.5</v>
+        <v>1308687.5</v>
       </c>
       <c r="H27" s="71">
         <f t="shared" si="5"/>
-        <v>97.8125</v>
+        <v>163585.9375</v>
       </c>
       <c r="I27" s="37">
         <f>F27/8</f>
@@ -4608,7 +4608,7 @@
       </c>
       <c r="J27" s="71">
         <f>H27/E27</f>
-        <v>16.302083333333332</v>
+        <v>27264.322916666668</v>
       </c>
       <c r="K27" s="37">
         <f>I27/E27</f>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="B28" s="30">
         <f>VLOOKUP($B21,计算用!A:G,6,FALSE)</f>
-        <v>28.18</v>
+        <v>47588.639999999999</v>
       </c>
       <c r="C28" s="35">
         <v>5</v>
@@ -4637,11 +4637,11 @@
       </c>
       <c r="G28" s="71">
         <f t="shared" si="4"/>
-        <v>3522.5</v>
+        <v>5948579.9999999991</v>
       </c>
       <c r="H28" s="71">
         <f t="shared" si="5"/>
-        <v>440.3125</v>
+        <v>743572.49999999988</v>
       </c>
       <c r="I28" s="37">
         <f>F28/8</f>
@@ -4649,7 +4649,7 @@
       </c>
       <c r="J28" s="71">
         <f>H28/E28</f>
-        <v>88.0625</v>
+        <v>148714.49999999997</v>
       </c>
       <c r="K28" s="37">
         <f>I28/E28</f>
@@ -4659,7 +4659,7 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B29" s="30">
         <f>SUM(B24:B28)*10000</f>
-        <v>561100</v>
+        <v>951772800</v>
       </c>
       <c r="F29" s="30">
         <f>SUM(F24:F28)*$E$1</f>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="L29" s="30">
         <f>F29-B29</f>
-        <v>11060</v>
+        <v>-951200640</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -4718,7 +4718,7 @@
       </c>
       <c r="B34" s="30">
         <f>VLOOKUP($B31,计算用!A:G,2,FALSE)</f>
-        <v>1.5</v>
+        <v>2538.06</v>
       </c>
       <c r="C34" s="35">
         <v>1</v>
@@ -4734,11 +4734,11 @@
       </c>
       <c r="G34" s="71">
         <f>B34/$E$1*10000</f>
-        <v>187.5</v>
+        <v>317257.5</v>
       </c>
       <c r="H34" s="71">
         <f>B34/$E$1*10000/8</f>
-        <v>23.4375</v>
+        <v>39657.1875</v>
       </c>
       <c r="I34" s="37">
         <f>F34/8</f>
@@ -4746,7 +4746,7 @@
       </c>
       <c r="J34" s="71">
         <f>H34/E34</f>
-        <v>5.859375</v>
+        <v>9914.296875</v>
       </c>
       <c r="K34" s="37">
         <f>I34/E34</f>
@@ -4759,7 +4759,7 @@
       </c>
       <c r="B35" s="30">
         <f>VLOOKUP($B31,计算用!A:G,3,FALSE)</f>
-        <v>3.76</v>
+        <v>6345.15</v>
       </c>
       <c r="C35" s="35">
         <v>2</v>
@@ -4775,11 +4775,11 @@
       </c>
       <c r="G35" s="71">
         <f t="shared" ref="G35:G38" si="6">B35/$E$1*10000</f>
-        <v>470</v>
+        <v>793143.75</v>
       </c>
       <c r="H35" s="71">
         <f t="shared" ref="H35:H38" si="7">B35/$E$1*10000/8</f>
-        <v>58.75</v>
+        <v>99142.96875</v>
       </c>
       <c r="I35" s="37">
         <f>F35/8</f>
@@ -4787,7 +4787,7 @@
       </c>
       <c r="J35" s="71">
         <f>H35/E35</f>
-        <v>14.6875</v>
+        <v>24785.7421875</v>
       </c>
       <c r="K35" s="37">
         <f>I35/E35</f>
@@ -4800,7 +4800,7 @@
       </c>
       <c r="B36" s="30">
         <f>VLOOKUP($B31,计算用!A:G,4,FALSE)</f>
-        <v>9.18</v>
+        <v>15862.88</v>
       </c>
       <c r="C36" s="35">
         <v>3</v>
@@ -4816,11 +4816,11 @@
       </c>
       <c r="G36" s="71">
         <f t="shared" si="6"/>
-        <v>1147.5</v>
+        <v>1982860</v>
       </c>
       <c r="H36" s="71">
         <f t="shared" si="7"/>
-        <v>143.4375</v>
+        <v>247857.5</v>
       </c>
       <c r="I36" s="37">
         <f>F36/8</f>
@@ -4828,7 +4828,7 @@
       </c>
       <c r="J36" s="71">
         <f>H36/E36</f>
-        <v>23.90625</v>
+        <v>41309.583333333336</v>
       </c>
       <c r="K36" s="37">
         <f>I36/E36</f>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="B37" s="30">
         <f>VLOOKUP($B31,计算用!A:G,5,FALSE)</f>
-        <v>4.17</v>
+        <v>6979.67</v>
       </c>
       <c r="C37" s="35">
         <v>4</v>
@@ -4857,11 +4857,11 @@
       </c>
       <c r="G37" s="71">
         <f t="shared" si="6"/>
-        <v>521.25</v>
+        <v>872458.75</v>
       </c>
       <c r="H37" s="71">
         <f t="shared" si="7"/>
-        <v>65.15625</v>
+        <v>109057.34375</v>
       </c>
       <c r="I37" s="37">
         <f>F37/8</f>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="J37" s="71">
         <f>H37/E37</f>
-        <v>10.859375</v>
+        <v>18176.223958333332</v>
       </c>
       <c r="K37" s="37">
         <f>I37/E37</f>
@@ -4882,7 +4882,7 @@
       </c>
       <c r="B38" s="30">
         <f>VLOOKUP($B31,计算用!A:G,6,FALSE)</f>
-        <v>18.78</v>
+        <v>31725.759999999998</v>
       </c>
       <c r="C38" s="35">
         <v>5</v>
@@ -4898,11 +4898,11 @@
       </c>
       <c r="G38" s="71">
         <f t="shared" si="6"/>
-        <v>2347.5</v>
+        <v>3965720</v>
       </c>
       <c r="H38" s="71">
         <f t="shared" si="7"/>
-        <v>293.4375</v>
+        <v>495715</v>
       </c>
       <c r="I38" s="37">
         <f>F38/8</f>
@@ -4910,7 +4910,7 @@
       </c>
       <c r="J38" s="71">
         <f>H38/E38</f>
-        <v>58.6875</v>
+        <v>99143</v>
       </c>
       <c r="K38" s="37">
         <f>I38/E38</f>
@@ -4920,7 +4920,7 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B39" s="30">
         <f>SUM(B34:B38)*10000</f>
-        <v>373900</v>
+        <v>634515199.99999988</v>
       </c>
       <c r="F39" s="30">
         <f>SUM(F34:F38)*$E$1</f>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="L39" s="30">
         <f>F39-B39</f>
-        <v>5140</v>
+        <v>-634136159.99999988</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -4979,7 +4979,7 @@
       </c>
       <c r="B44" s="30">
         <f>VLOOKUP($B41,计算用!A:G,2,FALSE)</f>
-        <v>0.84</v>
+        <v>1422.93</v>
       </c>
       <c r="C44" s="35">
         <v>1</v>
@@ -4995,11 +4995,11 @@
       </c>
       <c r="G44" s="71">
         <f>B44/$E$1*10000</f>
-        <v>104.99999999999999</v>
+        <v>177866.25</v>
       </c>
       <c r="H44" s="71">
         <f>B44/$E$1*10000/8</f>
-        <v>13.124999999999998</v>
+        <v>22233.28125</v>
       </c>
       <c r="I44" s="37">
         <f>F44/8</f>
@@ -5007,7 +5007,7 @@
       </c>
       <c r="J44" s="71">
         <f>H44/E44</f>
-        <v>3.2812499999999996</v>
+        <v>5558.3203125</v>
       </c>
       <c r="K44" s="37">
         <f>I44/E44</f>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="B45" s="30">
         <f>VLOOKUP($B41,计算用!A:G,3,FALSE)</f>
-        <v>2.11</v>
+        <v>3557.33</v>
       </c>
       <c r="C45" s="35">
         <v>2</v>
@@ -5036,11 +5036,11 @@
       </c>
       <c r="G45" s="71">
         <f t="shared" ref="G45:G48" si="8">B45/$E$1*10000</f>
-        <v>263.75</v>
+        <v>444666.25</v>
       </c>
       <c r="H45" s="71">
         <f t="shared" ref="H45:H48" si="9">B45/$E$1*10000/8</f>
-        <v>32.96875</v>
+        <v>55583.28125</v>
       </c>
       <c r="I45" s="37">
         <f>F45/8</f>
@@ -5048,7 +5048,7 @@
       </c>
       <c r="J45" s="71">
         <f>H45/E45</f>
-        <v>16.484375</v>
+        <v>27791.640625</v>
       </c>
       <c r="K45" s="37">
         <f>I45/E45</f>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="B46" s="30">
         <f>VLOOKUP($B41,计算用!A:G,4,FALSE)</f>
-        <v>5.15</v>
+        <v>8893.32</v>
       </c>
       <c r="C46" s="35">
         <v>3</v>
@@ -5077,11 +5077,11 @@
       </c>
       <c r="G46" s="71">
         <f t="shared" si="8"/>
-        <v>643.75</v>
+        <v>1111665</v>
       </c>
       <c r="H46" s="71">
         <f t="shared" si="9"/>
-        <v>80.46875</v>
+        <v>138958.125</v>
       </c>
       <c r="I46" s="37">
         <f>F46/8</f>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="J46" s="71">
         <f>H46/E46</f>
-        <v>20.1171875</v>
+        <v>34739.53125</v>
       </c>
       <c r="K46" s="37">
         <f>I46/E46</f>
@@ -5102,7 +5102,7 @@
       </c>
       <c r="B47" s="30">
         <f>VLOOKUP($B41,计算用!A:G,5,FALSE)</f>
-        <v>2.34</v>
+        <v>3913.06</v>
       </c>
       <c r="C47" s="35">
         <v>4</v>
@@ -5118,11 +5118,11 @@
       </c>
       <c r="G47" s="71">
         <f t="shared" si="8"/>
-        <v>292.5</v>
+        <v>489132.5</v>
       </c>
       <c r="H47" s="71">
         <f t="shared" si="9"/>
-        <v>36.5625</v>
+        <v>61141.5625</v>
       </c>
       <c r="I47" s="37">
         <f>F47/8</f>
@@ -5130,7 +5130,7 @@
       </c>
       <c r="J47" s="71">
         <f>H47/E47</f>
-        <v>18.28125</v>
+        <v>30570.78125</v>
       </c>
       <c r="K47" s="37">
         <f>I47/E47</f>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="B48" s="30">
         <f>VLOOKUP($B41,计算用!A:G,6,FALSE)</f>
-        <v>10.53</v>
+        <v>17786.650000000001</v>
       </c>
       <c r="C48" s="35">
         <v>5</v>
@@ -5159,11 +5159,11 @@
       </c>
       <c r="G48" s="71">
         <f t="shared" si="8"/>
-        <v>1316.25</v>
+        <v>2223331.2500000005</v>
       </c>
       <c r="H48" s="71">
         <f t="shared" si="9"/>
-        <v>164.53125</v>
+        <v>277916.40625000006</v>
       </c>
       <c r="I48" s="37">
         <f>F48/8</f>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="J48" s="71">
         <f>H48/E48</f>
-        <v>82.265625</v>
+        <v>138958.20312500003</v>
       </c>
       <c r="K48" s="37">
         <f>I48/E48</f>
@@ -5181,7 +5181,7 @@
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B49" s="30">
         <f>SUM(B44:B48)*10000</f>
-        <v>209700</v>
+        <v>355732900</v>
       </c>
       <c r="F49" s="30">
         <f>SUM(F44:F48)*$E$1</f>
@@ -5189,7 +5189,7 @@
       </c>
       <c r="L49" s="30">
         <f>F49-B49</f>
-        <v>-3620</v>
+        <v>-355526820</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -5240,7 +5240,7 @@
       </c>
       <c r="B54" s="30">
         <f>VLOOKUP($B51,计算用!A:G,2,FALSE)</f>
-        <v>1.69</v>
+        <v>2845.86</v>
       </c>
       <c r="C54" s="35">
         <v>1</v>
@@ -5256,11 +5256,11 @@
       </c>
       <c r="G54" s="71">
         <f>B54/$E$1*10000</f>
-        <v>211.24999999999997</v>
+        <v>355732.5</v>
       </c>
       <c r="H54" s="71">
         <f>B54/$E$1*10000/8</f>
-        <v>26.406249999999996</v>
+        <v>44466.5625</v>
       </c>
       <c r="I54" s="37">
         <f>F54/8</f>
@@ -5268,7 +5268,7 @@
       </c>
       <c r="J54" s="71">
         <f>H54/E54</f>
-        <v>6.6015624999999991</v>
+        <v>11116.640625</v>
       </c>
       <c r="K54" s="37">
         <f>I54/E54</f>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="B55" s="30">
         <f>VLOOKUP($B51,计算用!A:G,3,FALSE)</f>
-        <v>4.21</v>
+        <v>7114.66</v>
       </c>
       <c r="C55" s="35">
         <v>2</v>
@@ -5297,11 +5297,11 @@
       </c>
       <c r="G55" s="71">
         <f t="shared" ref="G55:G58" si="10">B55/$E$1*10000</f>
-        <v>526.25</v>
+        <v>889332.5</v>
       </c>
       <c r="H55" s="71">
         <f t="shared" ref="H55:H58" si="11">B55/$E$1*10000/8</f>
-        <v>65.78125</v>
+        <v>111166.5625</v>
       </c>
       <c r="I55" s="37">
         <f>F55/8</f>
@@ -5309,7 +5309,7 @@
       </c>
       <c r="J55" s="71">
         <f>H55/E55</f>
-        <v>32.890625</v>
+        <v>55583.28125</v>
       </c>
       <c r="K55" s="37">
         <f>I55/E55</f>
@@ -5322,7 +5322,7 @@
       </c>
       <c r="B56" s="30">
         <f>VLOOKUP($B51,计算用!A:G,4,FALSE)</f>
-        <v>10.3</v>
+        <v>17786.650000000001</v>
       </c>
       <c r="C56" s="35">
         <v>3</v>
@@ -5338,11 +5338,11 @@
       </c>
       <c r="G56" s="71">
         <f t="shared" si="10"/>
-        <v>1287.5</v>
+        <v>2223331.2500000005</v>
       </c>
       <c r="H56" s="71">
         <f t="shared" si="11"/>
-        <v>160.9375</v>
+        <v>277916.40625000006</v>
       </c>
       <c r="I56" s="37">
         <f>F56/8</f>
@@ -5350,7 +5350,7 @@
       </c>
       <c r="J56" s="71">
         <f>H56/E56</f>
-        <v>40.234375</v>
+        <v>69479.101562500015</v>
       </c>
       <c r="K56" s="37">
         <f>I56/E56</f>
@@ -5363,7 +5363,7 @@
       </c>
       <c r="B57" s="30">
         <f>VLOOKUP($B51,计算用!A:G,5,FALSE)</f>
-        <v>4.68</v>
+        <v>7826.12</v>
       </c>
       <c r="C57" s="35">
         <v>4</v>
@@ -5379,11 +5379,11 @@
       </c>
       <c r="G57" s="71">
         <f t="shared" si="10"/>
-        <v>585</v>
+        <v>978265</v>
       </c>
       <c r="H57" s="71">
         <f t="shared" si="11"/>
-        <v>73.125</v>
+        <v>122283.125</v>
       </c>
       <c r="I57" s="37">
         <f>F57/8</f>
@@ -5391,7 +5391,7 @@
       </c>
       <c r="J57" s="71">
         <f>H57/E57</f>
-        <v>36.5625</v>
+        <v>61141.5625</v>
       </c>
       <c r="K57" s="37">
         <f>I57/E57</f>
@@ -5404,7 +5404,7 @@
       </c>
       <c r="B58" s="30">
         <f>VLOOKUP($B51,计算用!A:G,6,FALSE)</f>
-        <v>21.06</v>
+        <v>35573.29</v>
       </c>
       <c r="C58" s="35">
         <v>5</v>
@@ -5420,11 +5420,11 @@
       </c>
       <c r="G58" s="71">
         <f t="shared" si="10"/>
-        <v>2632.5</v>
+        <v>4446661.25</v>
       </c>
       <c r="H58" s="71">
         <f t="shared" si="11"/>
-        <v>329.0625</v>
+        <v>555832.65625</v>
       </c>
       <c r="I58" s="37">
         <f>F58/8</f>
@@ -5432,7 +5432,7 @@
       </c>
       <c r="J58" s="71">
         <f>H58/E58</f>
-        <v>164.53125</v>
+        <v>277916.328125</v>
       </c>
       <c r="K58" s="37">
         <f>I58/E58</f>
@@ -5442,7 +5442,7 @@
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B59" s="30">
         <f>SUM(B54:B58)*10000</f>
-        <v>419400</v>
+        <v>711465800</v>
       </c>
       <c r="F59" s="30">
         <f>SUM(F54:F58)*$E$1</f>
@@ -5450,7 +5450,7 @@
       </c>
       <c r="L59" s="30">
         <f>F59-B59</f>
-        <v>-6600</v>
+        <v>-711053000</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -5501,7 +5501,7 @@
       </c>
       <c r="B64" s="30">
         <f>VLOOKUP($B61,计算用!A:G,2,FALSE)</f>
-        <v>0.84</v>
+        <v>1422.93</v>
       </c>
       <c r="C64" s="35">
         <v>1</v>
@@ -5517,11 +5517,11 @@
       </c>
       <c r="G64" s="71">
         <f>B64/$E$1*10000</f>
-        <v>104.99999999999999</v>
+        <v>177866.25</v>
       </c>
       <c r="H64" s="71">
         <f>B64/$E$1*10000/8</f>
-        <v>13.124999999999998</v>
+        <v>22233.28125</v>
       </c>
       <c r="I64" s="37">
         <f>F64/8</f>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="J64" s="71">
         <f>H64/E64</f>
-        <v>13.124999999999998</v>
+        <v>22233.28125</v>
       </c>
       <c r="K64" s="37">
         <f>I64/E64</f>
@@ -5542,7 +5542,7 @@
       </c>
       <c r="B65" s="30">
         <f>VLOOKUP($B61,计算用!A:G,3,FALSE)</f>
-        <v>2.11</v>
+        <v>3557.33</v>
       </c>
       <c r="C65" s="35">
         <v>2</v>
@@ -5558,11 +5558,11 @@
       </c>
       <c r="G65" s="71">
         <f t="shared" ref="G65:G68" si="12">B65/$E$1*10000</f>
-        <v>263.75</v>
+        <v>444666.25</v>
       </c>
       <c r="H65" s="71">
         <f t="shared" ref="H65:H68" si="13">B65/$E$1*10000/8</f>
-        <v>32.96875</v>
+        <v>55583.28125</v>
       </c>
       <c r="I65" s="37">
         <f>F65/8</f>
@@ -5570,7 +5570,7 @@
       </c>
       <c r="J65" s="71">
         <f>H65/E65</f>
-        <v>16.484375</v>
+        <v>27791.640625</v>
       </c>
       <c r="K65" s="37">
         <f>I65/E65</f>
@@ -5583,7 +5583,7 @@
       </c>
       <c r="B66" s="30">
         <f>VLOOKUP($B61,计算用!A:G,4,FALSE)</f>
-        <v>5.15</v>
+        <v>8893.32</v>
       </c>
       <c r="C66" s="35">
         <v>3</v>
@@ -5599,11 +5599,11 @@
       </c>
       <c r="G66" s="71">
         <f t="shared" si="12"/>
-        <v>643.75</v>
+        <v>1111665</v>
       </c>
       <c r="H66" s="71">
         <f t="shared" si="13"/>
-        <v>80.46875</v>
+        <v>138958.125</v>
       </c>
       <c r="I66" s="37">
         <f>F66/8</f>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="J66" s="71">
         <f>H66/E66</f>
-        <v>20.1171875</v>
+        <v>34739.53125</v>
       </c>
       <c r="K66" s="37">
         <f>I66/E66</f>
@@ -5624,7 +5624,7 @@
       </c>
       <c r="B67" s="30">
         <f>VLOOKUP($B61,计算用!A:G,5,FALSE)</f>
-        <v>2.34</v>
+        <v>3913.06</v>
       </c>
       <c r="C67" s="35">
         <v>4</v>
@@ -5640,11 +5640,11 @@
       </c>
       <c r="G67" s="71">
         <f t="shared" si="12"/>
-        <v>292.5</v>
+        <v>489132.5</v>
       </c>
       <c r="H67" s="71">
         <f t="shared" si="13"/>
-        <v>36.5625</v>
+        <v>61141.5625</v>
       </c>
       <c r="I67" s="37">
         <f>F67/8</f>
@@ -5652,7 +5652,7 @@
       </c>
       <c r="J67" s="71">
         <f>H67/E67</f>
-        <v>18.28125</v>
+        <v>30570.78125</v>
       </c>
       <c r="K67" s="37">
         <f>I67/E67</f>
@@ -5665,7 +5665,7 @@
       </c>
       <c r="B68" s="30">
         <f>VLOOKUP($B61,计算用!A:G,6,FALSE)</f>
-        <v>10.53</v>
+        <v>17786.650000000001</v>
       </c>
       <c r="C68" s="35">
         <v>5</v>
@@ -5681,11 +5681,11 @@
       </c>
       <c r="G68" s="71">
         <f t="shared" si="12"/>
-        <v>1316.25</v>
+        <v>2223331.2500000005</v>
       </c>
       <c r="H68" s="71">
         <f t="shared" si="13"/>
-        <v>164.53125</v>
+        <v>277916.40625000006</v>
       </c>
       <c r="I68" s="37">
         <f>F68/8</f>
@@ -5693,7 +5693,7 @@
       </c>
       <c r="J68" s="71">
         <f>H68/E68</f>
-        <v>82.265625</v>
+        <v>138958.20312500003</v>
       </c>
       <c r="K68" s="37">
         <f>I68/E68</f>
@@ -5703,7 +5703,7 @@
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B69" s="30">
         <f>SUM(B64:B68)*10000</f>
-        <v>209700</v>
+        <v>355732900</v>
       </c>
       <c r="F69" s="30">
         <f>SUM(F64:F68)*$E$1</f>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="L69" s="30">
         <f>F69-B69</f>
-        <v>-3620</v>
+        <v>-355526820</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -5762,7 +5762,7 @@
       </c>
       <c r="B74" s="30">
         <f>VLOOKUP($B71,计算用!A:G,2,FALSE)</f>
-        <v>0.84</v>
+        <v>1422.93</v>
       </c>
       <c r="C74" s="35">
         <v>1</v>
@@ -5778,11 +5778,11 @@
       </c>
       <c r="G74" s="71">
         <f>B74/$E$1*10000</f>
-        <v>104.99999999999999</v>
+        <v>177866.25</v>
       </c>
       <c r="H74" s="71">
         <f>B74/$E$1*10000/8</f>
-        <v>13.124999999999998</v>
+        <v>22233.28125</v>
       </c>
       <c r="I74" s="37">
         <f>F74/8</f>
@@ -5790,7 +5790,7 @@
       </c>
       <c r="J74" s="71">
         <f>H74/E74</f>
-        <v>13.124999999999998</v>
+        <v>22233.28125</v>
       </c>
       <c r="K74" s="37">
         <f>I74/E74</f>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="B75" s="30">
         <f>VLOOKUP($B71,计算用!A:G,3,FALSE)</f>
-        <v>2.11</v>
+        <v>3557.33</v>
       </c>
       <c r="C75" s="35">
         <v>2</v>
@@ -5819,11 +5819,11 @@
       </c>
       <c r="G75" s="71">
         <f t="shared" ref="G75:G78" si="14">B75/$E$1*10000</f>
-        <v>263.75</v>
+        <v>444666.25</v>
       </c>
       <c r="H75" s="71">
         <f t="shared" ref="H75:H78" si="15">B75/$E$1*10000/8</f>
-        <v>32.96875</v>
+        <v>55583.28125</v>
       </c>
       <c r="I75" s="37">
         <f>F75/8</f>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="J75" s="71">
         <f>H75/E75</f>
-        <v>16.484375</v>
+        <v>27791.640625</v>
       </c>
       <c r="K75" s="37">
         <f>I75/E75</f>
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B76" s="30">
         <f>VLOOKUP($B71,计算用!A:G,4,FALSE)</f>
-        <v>5.15</v>
+        <v>8893.32</v>
       </c>
       <c r="C76" s="35">
         <v>3</v>
@@ -5860,11 +5860,11 @@
       </c>
       <c r="G76" s="71">
         <f t="shared" si="14"/>
-        <v>643.75</v>
+        <v>1111665</v>
       </c>
       <c r="H76" s="71">
         <f t="shared" si="15"/>
-        <v>80.46875</v>
+        <v>138958.125</v>
       </c>
       <c r="I76" s="37">
         <f>F76/8</f>
@@ -5872,7 +5872,7 @@
       </c>
       <c r="J76" s="71">
         <f>H76/E76</f>
-        <v>20.1171875</v>
+        <v>34739.53125</v>
       </c>
       <c r="K76" s="37">
         <f>I76/E76</f>
@@ -5885,7 +5885,7 @@
       </c>
       <c r="B77" s="30">
         <f>VLOOKUP($B71,计算用!A:G,5,FALSE)</f>
-        <v>2.34</v>
+        <v>3913.06</v>
       </c>
       <c r="C77" s="35">
         <v>4</v>
@@ -5901,11 +5901,11 @@
       </c>
       <c r="G77" s="71">
         <f t="shared" si="14"/>
-        <v>292.5</v>
+        <v>489132.5</v>
       </c>
       <c r="H77" s="71">
         <f t="shared" si="15"/>
-        <v>36.5625</v>
+        <v>61141.5625</v>
       </c>
       <c r="I77" s="37">
         <f>F77/8</f>
@@ -5913,7 +5913,7 @@
       </c>
       <c r="J77" s="71">
         <f>H77/E77</f>
-        <v>18.28125</v>
+        <v>30570.78125</v>
       </c>
       <c r="K77" s="37">
         <f>I77/E77</f>
@@ -5926,7 +5926,7 @@
       </c>
       <c r="B78" s="30">
         <f>VLOOKUP($B71,计算用!A:G,6,FALSE)</f>
-        <v>10.53</v>
+        <v>17786.650000000001</v>
       </c>
       <c r="C78" s="35">
         <v>5</v>
@@ -5942,11 +5942,11 @@
       </c>
       <c r="G78" s="71">
         <f t="shared" si="14"/>
-        <v>1316.25</v>
+        <v>2223331.2500000005</v>
       </c>
       <c r="H78" s="71">
         <f t="shared" si="15"/>
-        <v>164.53125</v>
+        <v>277916.40625000006</v>
       </c>
       <c r="I78" s="37">
         <f>F78/8</f>
@@ -5954,7 +5954,7 @@
       </c>
       <c r="J78" s="71">
         <f>H78/E78</f>
-        <v>82.265625</v>
+        <v>138958.20312500003</v>
       </c>
       <c r="K78" s="37">
         <f>I78/E78</f>
@@ -5964,7 +5964,7 @@
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B79" s="30">
         <f>SUM(B74:B78)*10000</f>
-        <v>209700</v>
+        <v>355732900</v>
       </c>
       <c r="F79" s="30">
         <f>SUM(F74:F78)*$E$1</f>
@@ -5972,7 +5972,7 @@
       </c>
       <c r="L79" s="30">
         <f>F79-B79</f>
-        <v>-3620</v>
+        <v>-355526820</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -6023,7 +6023,7 @@
       </c>
       <c r="B84" s="30">
         <f>VLOOKUP($B81,计算用!A:G,2,FALSE)</f>
-        <v>0.84</v>
+        <v>1422.93</v>
       </c>
       <c r="C84" s="35">
         <v>1</v>
@@ -6039,11 +6039,11 @@
       </c>
       <c r="G84" s="71">
         <f>B84/$E$1*10000</f>
-        <v>104.99999999999999</v>
+        <v>177866.25</v>
       </c>
       <c r="H84" s="71">
         <f>B84/$E$1*10000/8</f>
-        <v>13.124999999999998</v>
+        <v>22233.28125</v>
       </c>
       <c r="I84" s="37">
         <f>F84/8</f>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="J84" s="71">
         <f>H84/E84</f>
-        <v>13.124999999999998</v>
+        <v>22233.28125</v>
       </c>
       <c r="K84" s="37">
         <f>I84/E84</f>
@@ -6064,7 +6064,7 @@
       </c>
       <c r="B85" s="30">
         <f>VLOOKUP($B81,计算用!A:G,3,FALSE)</f>
-        <v>2.11</v>
+        <v>3557.33</v>
       </c>
       <c r="C85" s="35">
         <v>2</v>
@@ -6080,11 +6080,11 @@
       </c>
       <c r="G85" s="71">
         <f t="shared" ref="G85:G88" si="16">B85/$E$1*10000</f>
-        <v>263.75</v>
+        <v>444666.25</v>
       </c>
       <c r="H85" s="71">
         <f t="shared" ref="H85:H88" si="17">B85/$E$1*10000/8</f>
-        <v>32.96875</v>
+        <v>55583.28125</v>
       </c>
       <c r="I85" s="37">
         <f>F85/8</f>
@@ -6092,7 +6092,7 @@
       </c>
       <c r="J85" s="71">
         <f>H85/E85</f>
-        <v>32.96875</v>
+        <v>55583.28125</v>
       </c>
       <c r="K85" s="37">
         <f>I85/E85</f>
@@ -6105,7 +6105,7 @@
       </c>
       <c r="B86" s="30">
         <f>VLOOKUP($B81,计算用!A:G,4,FALSE)</f>
-        <v>5.15</v>
+        <v>8893.32</v>
       </c>
       <c r="C86" s="35">
         <v>3</v>
@@ -6121,11 +6121,11 @@
       </c>
       <c r="G86" s="71">
         <f t="shared" si="16"/>
-        <v>643.75</v>
+        <v>1111665</v>
       </c>
       <c r="H86" s="71">
         <f t="shared" si="17"/>
-        <v>80.46875</v>
+        <v>138958.125</v>
       </c>
       <c r="I86" s="37">
         <f>F86/8</f>
@@ -6133,7 +6133,7 @@
       </c>
       <c r="J86" s="71">
         <f>H86/E86</f>
-        <v>40.234375</v>
+        <v>69479.0625</v>
       </c>
       <c r="K86" s="37">
         <f>I86/E86</f>
@@ -6146,7 +6146,7 @@
       </c>
       <c r="B87" s="30">
         <f>VLOOKUP($B81,计算用!A:G,5,FALSE)</f>
-        <v>2.34</v>
+        <v>3913.06</v>
       </c>
       <c r="C87" s="35">
         <v>4</v>
@@ -6162,11 +6162,11 @@
       </c>
       <c r="G87" s="71">
         <f t="shared" si="16"/>
-        <v>292.5</v>
+        <v>489132.5</v>
       </c>
       <c r="H87" s="71">
         <f t="shared" si="17"/>
-        <v>36.5625</v>
+        <v>61141.5625</v>
       </c>
       <c r="I87" s="37">
         <f>F87/8</f>
@@ -6174,7 +6174,7 @@
       </c>
       <c r="J87" s="71">
         <f>H87/E87</f>
-        <v>18.28125</v>
+        <v>30570.78125</v>
       </c>
       <c r="K87" s="37">
         <f>I87/E87</f>
@@ -6187,7 +6187,7 @@
       </c>
       <c r="B88" s="30">
         <f>VLOOKUP($B81,计算用!A:G,6,FALSE)</f>
-        <v>10.53</v>
+        <v>17786.650000000001</v>
       </c>
       <c r="C88" s="35">
         <v>5</v>
@@ -6203,11 +6203,11 @@
       </c>
       <c r="G88" s="71">
         <f t="shared" si="16"/>
-        <v>1316.25</v>
+        <v>2223331.2500000005</v>
       </c>
       <c r="H88" s="71">
         <f t="shared" si="17"/>
-        <v>164.53125</v>
+        <v>277916.40625000006</v>
       </c>
       <c r="I88" s="37">
         <f>F88/8</f>
@@ -6215,7 +6215,7 @@
       </c>
       <c r="J88" s="71">
         <f>H88/E88</f>
-        <v>82.265625</v>
+        <v>138958.20312500003</v>
       </c>
       <c r="K88" s="37">
         <f>I88/E88</f>
@@ -6225,7 +6225,7 @@
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B89" s="30">
         <f>SUM(B84:B88)*10000</f>
-        <v>209700</v>
+        <v>355732900</v>
       </c>
       <c r="F89" s="30">
         <f>SUM(F84:F88)*$E$1</f>
@@ -6233,7 +6233,7 @@
       </c>
       <c r="L89" s="30">
         <f>F89-B89</f>
-        <v>-3620</v>
+        <v>-355526820</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -6284,7 +6284,7 @@
       </c>
       <c r="B94" s="30">
         <f>VLOOKUP($B91,计算用!A:G,2,FALSE)</f>
-        <v>1.69</v>
+        <v>2845.86</v>
       </c>
       <c r="C94" s="35">
         <v>1</v>
@@ -6300,11 +6300,11 @@
       </c>
       <c r="G94" s="71">
         <f>B94/$E$1*10000</f>
-        <v>211.24999999999997</v>
+        <v>355732.5</v>
       </c>
       <c r="H94" s="71">
         <f>B94/$E$1*10000/8</f>
-        <v>26.406249999999996</v>
+        <v>44466.5625</v>
       </c>
       <c r="I94" s="37">
         <f>F94/8</f>
@@ -6312,7 +6312,7 @@
       </c>
       <c r="J94" s="71">
         <f>H94/E94</f>
-        <v>26.406249999999996</v>
+        <v>44466.5625</v>
       </c>
       <c r="K94" s="37">
         <f>I94/E94</f>
@@ -6325,7 +6325,7 @@
       </c>
       <c r="B95" s="30">
         <f>VLOOKUP($B91,计算用!A:G,3,FALSE)</f>
-        <v>4.21</v>
+        <v>7114.66</v>
       </c>
       <c r="C95" s="35">
         <v>2</v>
@@ -6341,11 +6341,11 @@
       </c>
       <c r="G95" s="71">
         <f t="shared" ref="G95:G98" si="18">B95/$E$1*10000</f>
-        <v>526.25</v>
+        <v>889332.5</v>
       </c>
       <c r="H95" s="71">
         <f t="shared" ref="H95:H98" si="19">B95/$E$1*10000/8</f>
-        <v>65.78125</v>
+        <v>111166.5625</v>
       </c>
       <c r="I95" s="37">
         <f>F95/8</f>
@@ -6353,7 +6353,7 @@
       </c>
       <c r="J95" s="71">
         <f>H95/E95</f>
-        <v>65.78125</v>
+        <v>111166.5625</v>
       </c>
       <c r="K95" s="37">
         <f>I95/E95</f>
@@ -6366,7 +6366,7 @@
       </c>
       <c r="B96" s="30">
         <f>VLOOKUP($B91,计算用!A:G,4,FALSE)</f>
-        <v>10.3</v>
+        <v>17786.650000000001</v>
       </c>
       <c r="C96" s="35">
         <v>3</v>
@@ -6382,11 +6382,11 @@
       </c>
       <c r="G96" s="71">
         <f t="shared" si="18"/>
-        <v>1287.5</v>
+        <v>2223331.2500000005</v>
       </c>
       <c r="H96" s="71">
         <f t="shared" si="19"/>
-        <v>160.9375</v>
+        <v>277916.40625000006</v>
       </c>
       <c r="I96" s="37">
         <f>F96/8</f>
@@ -6394,7 +6394,7 @@
       </c>
       <c r="J96" s="71">
         <f>H96/E96</f>
-        <v>80.46875</v>
+        <v>138958.20312500003</v>
       </c>
       <c r="K96" s="37">
         <f>I96/E96</f>
@@ -6407,7 +6407,7 @@
       </c>
       <c r="B97" s="30">
         <f>VLOOKUP($B91,计算用!A:G,5,FALSE)</f>
-        <v>4.68</v>
+        <v>7826.12</v>
       </c>
       <c r="C97" s="35">
         <v>4</v>
@@ -6423,11 +6423,11 @@
       </c>
       <c r="G97" s="71">
         <f t="shared" si="18"/>
-        <v>585</v>
+        <v>978265</v>
       </c>
       <c r="H97" s="71">
         <f t="shared" si="19"/>
-        <v>73.125</v>
+        <v>122283.125</v>
       </c>
       <c r="I97" s="37">
         <f>F97/8</f>
@@ -6435,7 +6435,7 @@
       </c>
       <c r="J97" s="71">
         <f>H97/E97</f>
-        <v>36.5625</v>
+        <v>61141.5625</v>
       </c>
       <c r="K97" s="37">
         <f>I97/E97</f>
@@ -6448,7 +6448,7 @@
       </c>
       <c r="B98" s="30">
         <f>VLOOKUP($B91,计算用!A:G,6,FALSE)</f>
-        <v>21.06</v>
+        <v>35573.29</v>
       </c>
       <c r="C98" s="35">
         <v>5</v>
@@ -6464,11 +6464,11 @@
       </c>
       <c r="G98" s="71">
         <f t="shared" si="18"/>
-        <v>2632.5</v>
+        <v>4446661.25</v>
       </c>
       <c r="H98" s="71">
         <f t="shared" si="19"/>
-        <v>329.0625</v>
+        <v>555832.65625</v>
       </c>
       <c r="I98" s="37">
         <f>F98/8</f>
@@ -6476,7 +6476,7 @@
       </c>
       <c r="J98" s="71">
         <f>H98/E98</f>
-        <v>164.53125</v>
+        <v>277916.328125</v>
       </c>
       <c r="K98" s="37">
         <f>I98/E98</f>
@@ -6486,7 +6486,7 @@
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B99" s="30">
         <f>SUM(B94:B98)*10000</f>
-        <v>419400</v>
+        <v>711465800</v>
       </c>
       <c r="F99" s="30">
         <f>SUM(F94:F98)*$E$1</f>
@@ -6494,7 +6494,7 @@
       </c>
       <c r="L99" s="30">
         <f>F99-B99</f>
-        <v>-6600</v>
+        <v>-711053000</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="B104" s="30">
         <f>VLOOKUP($B101,计算用!A:G,2,FALSE)</f>
-        <v>1.69</v>
+        <v>2845.86</v>
       </c>
       <c r="C104" s="35">
         <v>1</v>
@@ -6561,11 +6561,11 @@
       </c>
       <c r="G104" s="71">
         <f>B104/$E$1*10000</f>
-        <v>211.24999999999997</v>
+        <v>355732.5</v>
       </c>
       <c r="H104" s="71">
         <f>B104/$E$1*10000/8</f>
-        <v>26.406249999999996</v>
+        <v>44466.5625</v>
       </c>
       <c r="I104" s="37">
         <f>F104/8</f>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="J104" s="71">
         <f>H104/E104</f>
-        <v>5.2812499999999991</v>
+        <v>8893.3125</v>
       </c>
       <c r="K104" s="37">
         <f>I104/E104</f>
@@ -6586,7 +6586,7 @@
       </c>
       <c r="B105" s="30">
         <f>VLOOKUP($B101,计算用!A:G,3,FALSE)</f>
-        <v>4.21</v>
+        <v>7114.66</v>
       </c>
       <c r="C105" s="35">
         <v>2</v>
@@ -6602,11 +6602,11 @@
       </c>
       <c r="G105" s="71">
         <f t="shared" ref="G105:G108" si="20">B105/$E$1*10000</f>
-        <v>526.25</v>
+        <v>889332.5</v>
       </c>
       <c r="H105" s="71">
         <f t="shared" ref="H105:H108" si="21">B105/$E$1*10000/8</f>
-        <v>65.78125</v>
+        <v>111166.5625</v>
       </c>
       <c r="I105" s="37">
         <f>F105/8</f>
@@ -6614,7 +6614,7 @@
       </c>
       <c r="J105" s="71">
         <f>H105/E105</f>
-        <v>21.927083333333332</v>
+        <v>37055.520833333336</v>
       </c>
       <c r="K105" s="37">
         <f>I105/E105</f>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="B106" s="30">
         <f>VLOOKUP($B101,计算用!A:G,4,FALSE)</f>
-        <v>10.3</v>
+        <v>17786.650000000001</v>
       </c>
       <c r="C106" s="35">
         <v>3</v>
@@ -6643,11 +6643,11 @@
       </c>
       <c r="G106" s="71">
         <f t="shared" si="20"/>
-        <v>1287.5</v>
+        <v>2223331.2500000005</v>
       </c>
       <c r="H106" s="71">
         <f t="shared" si="21"/>
-        <v>160.9375</v>
+        <v>277916.40625000006</v>
       </c>
       <c r="I106" s="37">
         <f>F106/8</f>
@@ -6655,7 +6655,7 @@
       </c>
       <c r="J106" s="71">
         <f>H106/E106</f>
-        <v>26.822916666666668</v>
+        <v>46319.401041666679</v>
       </c>
       <c r="K106" s="37">
         <f>I106/E106</f>
@@ -6668,7 +6668,7 @@
       </c>
       <c r="B107" s="30">
         <f>VLOOKUP($B101,计算用!A:G,5,FALSE)</f>
-        <v>4.68</v>
+        <v>7826.12</v>
       </c>
       <c r="C107" s="35">
         <v>4</v>
@@ -6684,11 +6684,11 @@
       </c>
       <c r="G107" s="71">
         <f t="shared" si="20"/>
-        <v>585</v>
+        <v>978265</v>
       </c>
       <c r="H107" s="71">
         <f t="shared" si="21"/>
-        <v>73.125</v>
+        <v>122283.125</v>
       </c>
       <c r="I107" s="37">
         <f>F107/8</f>
@@ -6696,7 +6696,7 @@
       </c>
       <c r="J107" s="71">
         <f>H107/E107</f>
-        <v>18.28125</v>
+        <v>30570.78125</v>
       </c>
       <c r="K107" s="37">
         <f>I107/E107</f>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="B108" s="30">
         <f>VLOOKUP($B101,计算用!A:G,6,FALSE)</f>
-        <v>21.06</v>
+        <v>35573.29</v>
       </c>
       <c r="C108" s="35">
         <v>5</v>
@@ -6725,11 +6725,11 @@
       </c>
       <c r="G108" s="71">
         <f t="shared" si="20"/>
-        <v>2632.5</v>
+        <v>4446661.25</v>
       </c>
       <c r="H108" s="71">
         <f t="shared" si="21"/>
-        <v>329.0625</v>
+        <v>555832.65625</v>
       </c>
       <c r="I108" s="37">
         <f>F108/8</f>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="J108" s="71">
         <f>H108/E108</f>
-        <v>54.84375</v>
+        <v>92638.776041666672</v>
       </c>
       <c r="K108" s="37">
         <f>I108/E108</f>
@@ -6747,7 +6747,7 @@
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B109" s="30">
         <f>SUM(B104:B108)*10000</f>
-        <v>419400</v>
+        <v>711465800</v>
       </c>
       <c r="F109" s="30">
         <f>SUM(F104:F108)*$E$1</f>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="L109" s="30">
         <f>F109-B109</f>
-        <v>-6600</v>
+        <v>-711053000</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
@@ -6806,7 +6806,7 @@
       </c>
       <c r="B114" s="30">
         <f>VLOOKUP($B111,计算用!A:G,2,FALSE)</f>
-        <v>0.84</v>
+        <v>1422.93</v>
       </c>
       <c r="C114" s="35">
         <v>1</v>
@@ -6822,11 +6822,11 @@
       </c>
       <c r="G114" s="71">
         <f>B114/$E$1*10000</f>
-        <v>104.99999999999999</v>
+        <v>177866.25</v>
       </c>
       <c r="H114" s="71">
         <f>B114/$E$1*10000/8</f>
-        <v>13.124999999999998</v>
+        <v>22233.28125</v>
       </c>
       <c r="I114" s="37">
         <f>F114/8</f>
@@ -6834,7 +6834,7 @@
       </c>
       <c r="J114" s="71">
         <f>H114/E114</f>
-        <v>13.124999999999998</v>
+        <v>22233.28125</v>
       </c>
       <c r="K114" s="37">
         <f>I114/E114</f>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="B115" s="30">
         <f>VLOOKUP($B111,计算用!A:G,3,FALSE)</f>
-        <v>2.11</v>
+        <v>3557.33</v>
       </c>
       <c r="C115" s="35">
         <v>2</v>
@@ -6863,11 +6863,11 @@
       </c>
       <c r="G115" s="71">
         <f t="shared" ref="G115:G118" si="22">B115/$E$1*10000</f>
-        <v>263.75</v>
+        <v>444666.25</v>
       </c>
       <c r="H115" s="71">
         <f t="shared" ref="H115:H118" si="23">B115/$E$1*10000/8</f>
-        <v>32.96875</v>
+        <v>55583.28125</v>
       </c>
       <c r="I115" s="37">
         <f>F115/8</f>
@@ -6875,7 +6875,7 @@
       </c>
       <c r="J115" s="71">
         <f>H115/E115</f>
-        <v>32.96875</v>
+        <v>55583.28125</v>
       </c>
       <c r="K115" s="37">
         <f>I115/E115</f>
@@ -6888,7 +6888,7 @@
       </c>
       <c r="B116" s="30">
         <f>VLOOKUP($B111,计算用!A:G,4,FALSE)</f>
-        <v>5.15</v>
+        <v>8893.32</v>
       </c>
       <c r="C116" s="35">
         <v>3</v>
@@ -6904,11 +6904,11 @@
       </c>
       <c r="G116" s="71">
         <f t="shared" si="22"/>
-        <v>643.75</v>
+        <v>1111665</v>
       </c>
       <c r="H116" s="71">
         <f t="shared" si="23"/>
-        <v>80.46875</v>
+        <v>138958.125</v>
       </c>
       <c r="I116" s="37">
         <f>F116/8</f>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="J116" s="71">
         <f>H116/E116</f>
-        <v>40.234375</v>
+        <v>69479.0625</v>
       </c>
       <c r="K116" s="37">
         <f>I116/E116</f>
@@ -6929,7 +6929,7 @@
       </c>
       <c r="B117" s="30">
         <f>VLOOKUP($B111,计算用!A:G,5,FALSE)</f>
-        <v>2.34</v>
+        <v>3913.06</v>
       </c>
       <c r="C117" s="35">
         <v>4</v>
@@ -6945,11 +6945,11 @@
       </c>
       <c r="G117" s="71">
         <f t="shared" si="22"/>
-        <v>292.5</v>
+        <v>489132.5</v>
       </c>
       <c r="H117" s="71">
         <f t="shared" si="23"/>
-        <v>36.5625</v>
+        <v>61141.5625</v>
       </c>
       <c r="I117" s="37">
         <f>F117/8</f>
@@ -6957,7 +6957,7 @@
       </c>
       <c r="J117" s="71">
         <f>H117/E117</f>
-        <v>18.28125</v>
+        <v>30570.78125</v>
       </c>
       <c r="K117" s="37">
         <f>I117/E117</f>
@@ -6970,7 +6970,7 @@
       </c>
       <c r="B118" s="30">
         <f>VLOOKUP($B111,计算用!A:G,6,FALSE)</f>
-        <v>10.53</v>
+        <v>17786.650000000001</v>
       </c>
       <c r="C118" s="35">
         <v>5</v>
@@ -6986,11 +6986,11 @@
       </c>
       <c r="G118" s="71">
         <f t="shared" si="22"/>
-        <v>1316.25</v>
+        <v>2223331.2500000005</v>
       </c>
       <c r="H118" s="71">
         <f t="shared" si="23"/>
-        <v>164.53125</v>
+        <v>277916.40625000006</v>
       </c>
       <c r="I118" s="37">
         <f>F118/8</f>
@@ -6998,7 +6998,7 @@
       </c>
       <c r="J118" s="71">
         <f>H118/E118</f>
-        <v>27.421875</v>
+        <v>46319.401041666679</v>
       </c>
       <c r="K118" s="37">
         <f>I118/E118</f>
@@ -7008,7 +7008,7 @@
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B119" s="30">
         <f>SUM(B114:B118)*10000</f>
-        <v>209700</v>
+        <v>355732900</v>
       </c>
       <c r="F119" s="30">
         <f>SUM(F114:F118)*$E$1</f>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="L119" s="30">
         <f>F119-B119</f>
-        <v>-3620</v>
+        <v>-355526820</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
@@ -7067,7 +7067,7 @@
       </c>
       <c r="B124" s="30">
         <f>VLOOKUP($B121,计算用!A:G,2,FALSE)</f>
-        <v>0.84</v>
+        <v>1422.93</v>
       </c>
       <c r="C124" s="35">
         <v>1</v>
@@ -7083,11 +7083,11 @@
       </c>
       <c r="G124" s="71">
         <f>B124/$E$1*10000</f>
-        <v>104.99999999999999</v>
+        <v>177866.25</v>
       </c>
       <c r="H124" s="71">
         <f>B124/$E$1*10000/8</f>
-        <v>13.124999999999998</v>
+        <v>22233.28125</v>
       </c>
       <c r="I124" s="37">
         <f>F124/8</f>
@@ -7095,7 +7095,7 @@
       </c>
       <c r="J124" s="71">
         <f>H124/E124</f>
-        <v>13.124999999999998</v>
+        <v>22233.28125</v>
       </c>
       <c r="K124" s="37">
         <f>I124/E124</f>
@@ -7108,7 +7108,7 @@
       </c>
       <c r="B125" s="30">
         <f>VLOOKUP($B121,计算用!A:G,3,FALSE)</f>
-        <v>2.11</v>
+        <v>3557.33</v>
       </c>
       <c r="C125" s="35">
         <v>2</v>
@@ -7124,11 +7124,11 @@
       </c>
       <c r="G125" s="71">
         <f t="shared" ref="G125:G128" si="24">B125/$E$1*10000</f>
-        <v>263.75</v>
+        <v>444666.25</v>
       </c>
       <c r="H125" s="71">
         <f t="shared" ref="H125:H128" si="25">B125/$E$1*10000/8</f>
-        <v>32.96875</v>
+        <v>55583.28125</v>
       </c>
       <c r="I125" s="37">
         <f>F125/8</f>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="J125" s="71">
         <f>H125/E125</f>
-        <v>32.96875</v>
+        <v>55583.28125</v>
       </c>
       <c r="K125" s="37">
         <f>I125/E125</f>
@@ -7149,7 +7149,7 @@
       </c>
       <c r="B126" s="30">
         <f>VLOOKUP($B121,计算用!A:G,4,FALSE)</f>
-        <v>5.15</v>
+        <v>8893.32</v>
       </c>
       <c r="C126" s="35">
         <v>3</v>
@@ -7165,11 +7165,11 @@
       </c>
       <c r="G126" s="71">
         <f t="shared" si="24"/>
-        <v>643.75</v>
+        <v>1111665</v>
       </c>
       <c r="H126" s="71">
         <f t="shared" si="25"/>
-        <v>80.46875</v>
+        <v>138958.125</v>
       </c>
       <c r="I126" s="37">
         <f>F126/8</f>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="J126" s="71">
         <f>H126/E126</f>
-        <v>40.234375</v>
+        <v>69479.0625</v>
       </c>
       <c r="K126" s="37">
         <f>I126/E126</f>
@@ -7190,7 +7190,7 @@
       </c>
       <c r="B127" s="30">
         <f>VLOOKUP($B121,计算用!A:G,5,FALSE)</f>
-        <v>2.34</v>
+        <v>3913.06</v>
       </c>
       <c r="C127" s="35">
         <v>4</v>
@@ -7206,11 +7206,11 @@
       </c>
       <c r="G127" s="71">
         <f t="shared" si="24"/>
-        <v>292.5</v>
+        <v>489132.5</v>
       </c>
       <c r="H127" s="71">
         <f t="shared" si="25"/>
-        <v>36.5625</v>
+        <v>61141.5625</v>
       </c>
       <c r="I127" s="37">
         <f>F127/8</f>
@@ -7218,7 +7218,7 @@
       </c>
       <c r="J127" s="71">
         <f>H127/E127</f>
-        <v>36.5625</v>
+        <v>61141.5625</v>
       </c>
       <c r="K127" s="37">
         <f>I127/E127</f>
@@ -7231,7 +7231,7 @@
       </c>
       <c r="B128" s="30">
         <f>VLOOKUP($B121,计算用!A:G,6,FALSE)</f>
-        <v>10.53</v>
+        <v>17786.650000000001</v>
       </c>
       <c r="C128" s="35">
         <v>5</v>
@@ -7247,11 +7247,11 @@
       </c>
       <c r="G128" s="71">
         <f t="shared" si="24"/>
-        <v>1316.25</v>
+        <v>2223331.2500000005</v>
       </c>
       <c r="H128" s="71">
         <f t="shared" si="25"/>
-        <v>164.53125</v>
+        <v>277916.40625000006</v>
       </c>
       <c r="I128" s="37">
         <f>F128/8</f>
@@ -7259,7 +7259,7 @@
       </c>
       <c r="J128" s="71">
         <f>H128/E128</f>
-        <v>54.84375</v>
+        <v>92638.802083333358</v>
       </c>
       <c r="K128" s="37">
         <f>I128/E128</f>
@@ -7269,7 +7269,7 @@
     <row r="129" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B129" s="30">
         <f>SUM(B124:B128)*10000</f>
-        <v>209700</v>
+        <v>355732900</v>
       </c>
       <c r="F129" s="30">
         <f>SUM(F124:F128)*$E$1</f>
@@ -7277,17 +7277,17 @@
       </c>
       <c r="L129" s="30">
         <f>F129-B129</f>
-        <v>-3620</v>
+        <v>-355526820</v>
       </c>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.2">
       <c r="L130" s="72">
         <f>L129+L119+L109+L99+L89+L79+L69+L59+L49+L39+L29+L19+L9</f>
-        <v>-2839.9999999998836</v>
+        <v>-7595522740</v>
       </c>
       <c r="M130" s="30">
         <f>L130/80/8</f>
-        <v>-4.4374999999998179</v>
+        <v>-11868004.28125</v>
       </c>
     </row>
   </sheetData>
@@ -7329,7 +7329,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
